--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.512</v>
+        <v>-0.152</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.45</v>
+        <v>27.886</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.718</v>
+        <v>-0.036</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.063</v>
+        <v>28.883</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.773</v>
+        <v>-0.031</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.817</v>
+        <v>27.331</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7.796281126016245</v>
+        <v>28.16611626675877</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.02963282182579</v>
+        <v>28.16611629926168</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.10957109052849</v>
+        <v>28.16611630818202</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.431379503056871</v>
+        <v>28.16611626471892</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.37229819060437</v>
+        <v>28.16611630152554</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.06269145706292</v>
+        <v>28.16611631162703</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>12.93737503913401</v>
+        <v>28.16611627569992</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.76081336890985</v>
+        <v>28.16611630850519</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>32.88936402381059</v>
+        <v>28.16611631750851</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>31.98895669449952</v>
+        <v>28.16611632401734</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>39.56614813394822</v>
+        <v>28.16611634011455</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>42.06471597707071</v>
+        <v>28.16611634499074</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>14.63808593863749</v>
+        <v>28.16611629954594</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.49490664759237</v>
+        <v>28.16611633895218</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36.49031028257249</v>
+        <v>28.16611634972918</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.72006763666813</v>
+        <v>28.16611631918706</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>34.04517381627929</v>
+        <v>28.1661163555205</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>40.96727323592903</v>
+        <v>28.16611636577807</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2.022994290916891</v>
+        <v>28.16611631645423</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>24.62789577224905</v>
+        <v>28.16611635759858</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>32.50180412141236</v>
+        <v>28.16611636921436</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>15.51750861467684</v>
+        <v>28.16611633178135</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>35.46976372506845</v>
+        <v>28.16611636845277</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>42.42803510185186</v>
+        <v>28.16611637880576</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>42.22508699460806</v>
+        <v>28.16611638361686</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>53.79613171374518</v>
+        <v>28.16611640236414</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>58.80374028283605</v>
+        <v>28.16611640803296</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>17.78597474445889</v>
+        <v>28.16611635504863</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>43.28742692645889</v>
+        <v>28.16611639970338</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>51.91706316662994</v>
+        <v>28.16611641187355</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>14.97387726742722</v>
+        <v>28.16611636198926</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>38.18026083517365</v>
+        <v>28.16611639762727</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>47.27402005980329</v>
+        <v>28.16611640813774</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3.64286481662181</v>
+        <v>28.16611635933577</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29.5021310950985</v>
+        <v>28.16611639969261</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>39.83739767099745</v>
+        <v>28.16611641159477</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>22.87048532946186</v>
+        <v>28.16611637602027</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>45.73113137542323</v>
+        <v>28.1661164119898</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>54.87372701043816</v>
+        <v>28.16611642259804</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>59.27038367088076</v>
+        <v>28.16611642510379</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>72.14508441406213</v>
+        <v>28.16611644346829</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>78.5382465199887</v>
+        <v>28.16611644873201</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.56652416845024</v>
+        <v>28.1661163960273</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>58.56413442418027</v>
+        <v>28.1661164396707</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>69.5048027770283</v>
+        <v>28.1661164520837</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>11.61120042472835</v>
+        <v>28.16611626867503</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>36.13567701847002</v>
+        <v>28.16611630177935</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>39.62898164745644</v>
+        <v>28.16611631044274</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>9.697743064016796</v>
+        <v>28.16611626635792</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>37.03781053544827</v>
+        <v>28.1661163038456</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>41.06006849690661</v>
+        <v>28.16611631365611</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>24.76668422502427</v>
+        <v>28.1661162775142</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>48.95884382334157</v>
+        <v>28.16611631092647</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>52.49275996971737</v>
+        <v>28.16611631967045</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>46.96852213176088</v>
+        <v>28.16611632525874</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>57.20545645706494</v>
+        <v>28.16611634139716</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>58.47906399013198</v>
+        <v>28.16611634604186</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>20.13781825046768</v>
+        <v>28.16611630005972</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>44.9681818621273</v>
+        <v>28.16611634022173</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>51.40996576151043</v>
+        <v>28.16611635072033</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>10.5576120447246</v>
+        <v>28.16611631906182</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>38.36664077566795</v>
+        <v>28.1661163559811</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>43.37541400914219</v>
+        <v>28.16611636600478</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1.285861948040537</v>
+        <v>28.16611631605901</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>32.37359517085218</v>
+        <v>28.16611635786678</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>38.07853423421679</v>
+        <v>28.16611636921769</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>19.50260885149323</v>
+        <v>28.16611633162191</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>47.00621021023964</v>
+        <v>28.16611636888463</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>52.03401440067942</v>
+        <v>28.16611637900154</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>49.94513802476796</v>
+        <v>28.16611638318626</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>63.26850540952394</v>
+        <v>28.16611640187372</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>66.3607550565029</v>
+        <v>28.16611640730735</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>17.66166129286067</v>
+        <v>28.16611635396789</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>51.8681253982441</v>
+        <v>28.16611639931554</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>58.83205903947666</v>
+        <v>28.16611641128175</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>12.70019491960687</v>
+        <v>28.16611636248653</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>43.43122830650282</v>
+        <v>28.1661163987484</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>50.68087648814461</v>
+        <v>28.1661164090102</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>3.33895657016264</v>
+        <v>28.16611635964458</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>37.72670579015587</v>
+        <v>28.16611640070789</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>45.97141439333422</v>
+        <v>28.16611641232847</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>27.20290068751554</v>
+        <v>28.16611637663409</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>57.65619850143369</v>
+        <v>28.16611641323329</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>64.93739769274039</v>
+        <v>28.16611642359055</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>65.25592342978975</v>
+        <v>28.16611642554001</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>79.78134453327517</v>
+        <v>28.16611644386328</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>85.1460982761967</v>
+        <v>28.16611644892793</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>27.27388826364294</v>
+        <v>28.16611639578932</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>66.14222492777681</v>
+        <v>28.16611644018348</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>75.34957822173641</v>
+        <v>28.16611645237501</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>8.808161420900372</v>
+        <v>28.16611626794831</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>32.42237756354699</v>
+        <v>28.16611630104332</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>35.4071690255662</v>
+        <v>28.16611630970944</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>5.578062892742549</v>
+        <v>28.16611626560326</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>31.88391596704057</v>
+        <v>28.16611630308038</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>35.33114325358196</v>
+        <v>28.16611631289398</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>20.54893315987159</v>
+        <v>28.16611627676627</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>43.82050429128992</v>
+        <v>28.16611631016913</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>46.84170508863521</v>
+        <v>28.16611631891587</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>42.65424378826375</v>
+        <v>28.1661163246585</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>52.3682598417241</v>
+        <v>28.16611634079724</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>53.2645355864606</v>
+        <v>28.16611634544882</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>16.85073174887633</v>
+        <v>28.1661162995017</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>40.61427388116137</v>
+        <v>28.16611633965361</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>46.33463699017767</v>
+        <v>28.16611635015844</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>11.83211211315241</v>
+        <v>28.16611631876273</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>38.79293947826862</v>
+        <v>28.16611635568826</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>43.31611521509043</v>
+        <v>28.1661163657127</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1.877190393211032</v>
+        <v>28.16611631575619</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>32.00070526617742</v>
+        <v>28.16611635757103</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>37.15680613906351</v>
+        <v>28.16611636892281</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>20.10491170753128</v>
+        <v>28.16611633134788</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>46.74996051713076</v>
+        <v>28.1661163686169</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>51.28838760534848</v>
+        <v>28.16611637873459</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>50.21552036621725</v>
+        <v>28.16611638304749</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>62.94573959070254</v>
+        <v>28.16611640173702</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>65.61278114593046</v>
+        <v>28.16611640717973</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>18.7840626118744</v>
+        <v>28.16611635384719</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>51.94698973841973</v>
+        <v>28.16611639919881</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>58.20290322274698</v>
+        <v>28.166116411172</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>14.44302164919345</v>
+        <v>28.16611636234713</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>44.36693478946638</v>
+        <v>28.16611639861647</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>51.20192051702949</v>
+        <v>28.16611640887842</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>4.329588223697428</v>
+        <v>28.16611635948517</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>37.79944701456556</v>
+        <v>28.16611640055694</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>45.57578308302902</v>
+        <v>28.16611641217768</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>28.19878640999649</v>
+        <v>28.16611637651133</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>57.8348571538889</v>
+        <v>28.16611641311807</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>64.6983134555777</v>
+        <v>28.16611642347548</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>65.91996786752017</v>
+        <v>28.16611642553767</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>79.85893153947552</v>
+        <v>28.16611644386505</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>84.80917210141494</v>
+        <v>28.16611644893617</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>28.68452508988621</v>
+        <v>28.16611639579925</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>66.56456873966259</v>
+        <v>28.16611644019667</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>75.14826875790695</v>
+        <v>28.16611645239322</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>7.640622792551648</v>
+        <v>28.1661162624798</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>21.85377856398112</v>
+        <v>28.16611629474778</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>25.35262975272394</v>
+        <v>28.16611630359694</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>2.388999815996836</v>
+        <v>28.16611626001785</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>18.044541920402</v>
+        <v>28.16611629655844</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>22.07624252530965</v>
+        <v>28.16611630657932</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>11.83501539664265</v>
+        <v>28.16611627076926</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>25.62398595971013</v>
+        <v>28.16611630333741</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.16593995778403</v>
+        <v>28.16611631226889</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>28.19418265051038</v>
+        <v>28.16611631891025</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>35.19487670990578</v>
+        <v>28.16611633488174</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>37.55578135211699</v>
+        <v>28.16611633973523</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>13.31219280147125</v>
+        <v>28.16611629478619</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>25.58982219675913</v>
+        <v>28.16611633389158</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>31.86008689264811</v>
+        <v>28.16611634458265</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>11.14556861166753</v>
+        <v>28.16611631477516</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.14665956991755</v>
+        <v>28.16611635085093</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>35.49908778701301</v>
+        <v>28.16611636104178</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-0.6746354509104151</v>
+        <v>28.16611631159838</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>19.3000230709101</v>
+        <v>28.16611635245094</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>26.52876821893858</v>
+        <v>28.16611636399116</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>11.71196859726832</v>
+        <v>28.16611632667921</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.3229838264979</v>
+        <v>28.16611636309056</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>35.70654723001992</v>
+        <v>28.16611637337622</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>35.46297154913125</v>
+        <v>28.16611637831162</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>46.34406472899116</v>
+        <v>28.16611639692338</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>51.17577643527346</v>
+        <v>28.16611640257308</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>13.58254137354004</v>
+        <v>28.16611635008983</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>36.07188637617186</v>
+        <v>28.1661163944151</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>44.04431543570658</v>
+        <v>28.16611640650699</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>14.2697910179855</v>
+        <v>28.16611635816306</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>35.2678609026257</v>
+        <v>28.16611639356889</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>43.59099021129818</v>
+        <v>28.16611640400091</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>2.181875462765131</v>
+        <v>28.1661163550874</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>25.54191004109416</v>
+        <v>28.16611639518132</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>35.00439820215519</v>
+        <v>28.16611640699464</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>20.63483809344556</v>
+        <v>28.16611637157917</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>41.2705936209985</v>
+        <v>28.16611640731436</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>49.63585903041478</v>
+        <v>28.16611641784342</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>53.69123551256804</v>
+        <v>28.1661164204864</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>65.85447093705586</v>
+        <v>28.16611643872797</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>72.11779253351573</v>
+        <v>28.16611644396745</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>25.45175662973022</v>
+        <v>28.1661163917183</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>52.58272927447064</v>
+        <v>28.1661164350695</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>62.64636433162158</v>
+        <v>28.16611644739368</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>11.6768698681966</v>
+        <v>28.16611627167832</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>30.48446359519145</v>
+        <v>28.16611630410143</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>34.27963697736411</v>
+        <v>28.16611631288768</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>7.335750586601907</v>
+        <v>28.16611626971567</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>28.19491329307546</v>
+        <v>28.16611630643193</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>32.56180373761789</v>
+        <v>28.16611631638157</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>19.33977714274964</v>
+        <v>28.1661162807469</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>37.76116843784456</v>
+        <v>28.16611631347163</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>41.60186800166909</v>
+        <v>28.16611632233962</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>38.74255622982746</v>
+        <v>28.16611632829943</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>47.40982502439418</v>
+        <v>28.16611634427453</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>49.58362996416801</v>
+        <v>28.16611634909085</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>18.70769590280042</v>
+        <v>28.16611630375861</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>36.3158304394445</v>
+        <v>28.16611634301215</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>42.96769563006107</v>
+        <v>28.16611635363758</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>20.24845579953422</v>
+        <v>28.16611632448681</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>42.89149609733497</v>
+        <v>28.16611636071358</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>49.02791077114757</v>
+        <v>28.1661163708118</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>9.349389679679476</v>
+        <v>28.16611632188931</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>34.58049389895478</v>
+        <v>28.16611636291286</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>41.56341076409463</v>
+        <v>28.1661163743482</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>24.90611419195938</v>
+        <v>28.16611633725841</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>47.19673900481092</v>
+        <v>28.16611637382217</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>53.36189256138903</v>
+        <v>28.16611638401434</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>52.26835242769697</v>
+        <v>28.16611638835615</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>64.85921391113594</v>
+        <v>28.16611640696698</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>69.21594978178688</v>
+        <v>28.16611641256517</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>25.68470058636644</v>
+        <v>28.16611635974142</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>53.64028818336155</v>
+        <v>28.16611640421298</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>61.37943690364813</v>
+        <v>28.16611641620419</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>18.79768061260149</v>
+        <v>28.16611636642158</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>44.07694544397243</v>
+        <v>28.16611640195713</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>52.3922992845727</v>
+        <v>28.1661164123158</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>7.948539942426394</v>
+        <v>28.16611636388394</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>36.15673892314474</v>
+        <v>28.16611640412477</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>45.60926655123005</v>
+        <v>28.16611641585503</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>29.01778054136379</v>
+        <v>28.16611638059303</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>53.96997471311758</v>
+        <v>28.16611641645915</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>62.32662339739279</v>
+        <v>28.16611642691418</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>65.73532398633698</v>
+        <v>28.16611642899365</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>79.56892001839874</v>
+        <v>28.16611644724203</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>85.39386304789411</v>
+        <v>28.16611645244239</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>33.07770139098234</v>
+        <v>28.16611639988575</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>65.38288953938461</v>
+        <v>28.16611644336625</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>75.41411108607254</v>
+        <v>28.16611645561379</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>7.284189571537311</v>
+        <v>28.16611627873526</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>31.46309098152837</v>
+        <v>28.16611631003601</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>34.47881305285851</v>
+        <v>28.16611631815792</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>4.855123651559047</v>
+        <v>28.16611627681232</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>31.81909823917318</v>
+        <v>28.16611631225761</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>35.29771916725817</v>
+        <v>28.16611632145494</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>19.77020895439905</v>
+        <v>28.16611628748188</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>43.63438124546126</v>
+        <v>28.1661163190738</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>46.68686139834333</v>
+        <v>28.16611632727126</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>39.8351389326828</v>
+        <v>28.1661163322147</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>50.08677573924986</v>
+        <v>28.16611634742329</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>51.16883483259781</v>
+        <v>28.16611635182494</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>13.99756179721029</v>
+        <v>28.16611630824043</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>37.79507258002165</v>
+        <v>28.16611634610054</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>43.53730166193661</v>
+        <v>28.16611635594914</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>18.30067902345595</v>
+        <v>28.16611632912889</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>46.40851749919651</v>
+        <v>28.16611636411423</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>50.5821524105928</v>
+        <v>28.16611637347521</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>8.457589522759106</v>
+        <v>28.1661163266645</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>39.89622596732791</v>
+        <v>28.16611636628226</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>44.65267327763942</v>
+        <v>28.16611637688273</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>27.73757228682378</v>
+        <v>28.16611634157521</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>55.56266331552834</v>
+        <v>28.166116376886</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>59.74895041409749</v>
+        <v>28.16611638633406</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>56.39240831357306</v>
+        <v>28.16611638992958</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>70.09827027979244</v>
+        <v>28.16611640759817</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>72.81019416595043</v>
+        <v>28.16611641272387</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>25.12252626012418</v>
+        <v>28.16611636207585</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>59.09409367997311</v>
+        <v>28.16611640496546</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>64.82087618229347</v>
+        <v>28.1661164161331</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>18.2100783246506</v>
+        <v>28.16611636913768</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>48.74447601152855</v>
+        <v>28.16611640346465</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>54.98275296980452</v>
+        <v>28.1661164130803</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>7.769237311136175</v>
+        <v>28.16611636675425</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>41.94780476129901</v>
+        <v>28.16611640562646</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>49.04464379615665</v>
+        <v>28.16611641651532</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>32.33320427056916</v>
+        <v>28.1661163829735</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>62.60842709986227</v>
+        <v>28.1661164176198</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>68.87092449030541</v>
+        <v>28.1661164273249</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>68.28516614680883</v>
+        <v>28.16611642882559</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>83.12337197595789</v>
+        <v>28.16611644615515</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>87.46071979648424</v>
+        <v>28.16611645093707</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>31.68785138844888</v>
+        <v>28.16611640051297</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>69.78080147447876</v>
+        <v>28.16611644246732</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>77.59173809351681</v>
+        <v>28.16611645388979</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>0.6207035680283397</v>
+        <v>28.16611626590108</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>17.03446066164518</v>
+        <v>28.16611629717071</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>20.55745110774407</v>
+        <v>28.16611630559367</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-3.993947667746305</v>
+        <v>28.16611626375988</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>14.16837374353361</v>
+        <v>28.16611629916993</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>18.22302248488238</v>
+        <v>28.16611630870818</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>6.975443862952098</v>
+        <v>28.16611627419924</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>23.00437097347155</v>
+        <v>28.16611630575976</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>26.56918616433418</v>
+        <v>28.16611631426107</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>25.63508191517796</v>
+        <v>28.16611632066693</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>32.72721394311588</v>
+        <v>28.16611633608949</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>34.54249249087992</v>
+        <v>28.16611634063253</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>7.333263681414266</v>
+        <v>28.16611629707519</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>22.49671895823614</v>
+        <v>28.16611633501478</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>28.74506032238</v>
+        <v>28.16611634520539</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>9.778286903905103</v>
+        <v>28.16611631565598</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>30.76996963073737</v>
+        <v>28.16611635066002</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>36.75871096167176</v>
+        <v>28.16611636038364</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-1.093642814736359</v>
+        <v>28.1661163128699</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>22.28201136770786</v>
+        <v>28.16611635250883</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>29.09676910901985</v>
+        <v>28.16611636351995</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>13.0631813488402</v>
+        <v>28.16611632757022</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>33.70952597178481</v>
+        <v>28.16611636289987</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>39.7277972235984</v>
+        <v>28.16611637271394</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>39.43998465350005</v>
+        <v>28.16611637756328</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>50.13819521200662</v>
+        <v>28.16611639546945</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>54.36403633237025</v>
+        <v>28.16611640076976</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>14.29648102963298</v>
+        <v>28.1661163500468</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>40.30952104282931</v>
+        <v>28.16611639306633</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>47.97003625407901</v>
+        <v>28.16611640464561</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>13.66558118606852</v>
+        <v>28.16611635775503</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>37.69478198728654</v>
+        <v>28.16611639210229</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>45.80433663565435</v>
+        <v>28.16611640206236</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>2.620901762739331</v>
+        <v>28.1661163550863</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>29.42753202529032</v>
+        <v>28.16611639398148</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>38.64641421126867</v>
+        <v>28.16611640526036</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>22.59781380655834</v>
+        <v>28.16611637114937</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>46.30943370619046</v>
+        <v>28.16611640581614</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>54.46096011206271</v>
+        <v>28.16611641586886</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>56.95611152627453</v>
+        <v>28.16611641852301</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>68.9054283261442</v>
+        <v>28.16611643605178</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>74.64473917243194</v>
+        <v>28.16611644098719</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>26.09616432487039</v>
+        <v>28.16611639050721</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>56.65037512895988</v>
+        <v>28.16611643255991</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>66.52859022152519</v>
+        <v>28.16611644436177</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-2.205836146392059</v>
+        <v>28.16611626590494</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>15.2674295243127</v>
+        <v>28.16611629860161</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>18.97138505288866</v>
+        <v>28.16611630745577</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-6.638618780277156</v>
+        <v>28.16611626364059</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>12.70615083493558</v>
+        <v>28.16611630066663</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>16.96975988000138</v>
+        <v>28.16611631069317</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>4.089105605838263</v>
+        <v>28.1661162746116</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>21.16127796538571</v>
+        <v>28.16611630761243</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>24.909291362599</v>
+        <v>28.16611631654896</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>22.51842984737628</v>
+        <v>28.16611632280541</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>30.81120376612034</v>
+        <v>28.16611633892658</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>33.00381725589845</v>
+        <v>28.16611634378443</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>3.737144324273935</v>
+        <v>28.16611629815801</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>19.78715969823666</v>
+        <v>28.16611633776153</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>26.33215057913963</v>
+        <v>28.16611634846791</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>1.424181619430778</v>
+        <v>28.16611631865243</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>22.61610424529829</v>
+        <v>28.16611635518729</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>28.72289873500943</v>
+        <v>28.16611636537919</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-9.676316702962627</v>
+        <v>28.1661163157288</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>13.90836788671462</v>
+        <v>28.16611635710125</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>20.85814612612462</v>
+        <v>28.16611636864265</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>4.386140152707823</v>
+        <v>28.16611633108253</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>25.2096383758165</v>
+        <v>28.16611636795725</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>31.34434236111415</v>
+        <v>28.16611637824395</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>30.72930897643747</v>
+        <v>28.16611638288179</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>42.91718222530102</v>
+        <v>28.16611640165921</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>47.3690531218204</v>
+        <v>28.16611640731849</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>5.374960425179866</v>
+        <v>28.16611635412526</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>31.65864244081741</v>
+        <v>28.16611639898915</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>39.39185184204673</v>
+        <v>28.16611641109473</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>1.962194870856122</v>
+        <v>28.16611636160166</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>25.98813869257254</v>
+        <v>28.16611639745068</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>34.27060343688473</v>
+        <v>28.16611640790763</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-9.207953218440121</v>
+        <v>28.16611635877808</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>17.57751808563221</v>
+        <v>28.16611639937388</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>26.99323087070448</v>
+        <v>28.16611641121544</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>10.60956824171558</v>
+        <v>28.16611637551691</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>34.29391573914477</v>
+        <v>28.16611641169942</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>42.61676882987456</v>
+        <v>28.16611642225364</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>46.20872122003757</v>
+        <v>28.16611642459898</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>59.70981297673866</v>
+        <v>28.16611644301927</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>65.73286141890894</v>
+        <v>28.16611644827488</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>14.63435395088148</v>
+        <v>28.16611639532161</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>45.4960322789732</v>
+        <v>28.16611643919935</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>55.49861829709261</v>
+        <v>28.16611645156654</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>15.56907133152454</v>
+        <v>28.16611628430554</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>42.24880344604401</v>
+        <v>28.16611631648339</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>45.56054169000156</v>
+        <v>28.16611632488671</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>15.07470906125985</v>
+        <v>28.16611628314414</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>44.85942398942207</v>
+        <v>28.16611631958266</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>48.67639802419208</v>
+        <v>28.16611632909867</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>31.47859221475209</v>
+        <v>28.16611629435423</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>57.851432479487</v>
+        <v>28.16611632683141</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>61.20436547417474</v>
+        <v>28.1661163353129</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>55.98603962879818</v>
+        <v>28.1661163403258</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>66.77302549753544</v>
+        <v>28.16611635597869</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>67.83413369335894</v>
+        <v>28.16611636049782</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>28.7956421950359</v>
+        <v>28.16611631558953</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>55.54784604743034</v>
+        <v>28.16611635455511</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>61.89547902841221</v>
+        <v>28.16611636474704</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>12.71029420762023</v>
+        <v>28.16611633325495</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>42.7353200366504</v>
+        <v>28.16611636915448</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>46.9823340785243</v>
+        <v>28.16611637880728</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>3.782269454176623</v>
+        <v>28.16611633138375</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>37.38351913452311</v>
+        <v>28.16611637203673</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>42.22586569274123</v>
+        <v>28.16611638296766</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>23.18250254249227</v>
+        <v>28.1661163468461</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>52.92901614561826</v>
+        <v>28.16611638307957</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>57.19082844644103</v>
+        <v>28.16611639282216</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>55.38876968096071</v>
+        <v>28.1661163965137</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>69.14571461054952</v>
+        <v>28.16611641464753</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>71.86460821878232</v>
+        <v>28.16611641990368</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>23.15579508202578</v>
+        <v>28.16611636788335</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>59.43680880925542</v>
+        <v>28.1661164119225</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>65.32814086269325</v>
+        <v>28.16611642344564</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>12.71134026790938</v>
+        <v>28.16611637366877</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>45.34398118403723</v>
+        <v>28.16611640887101</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>51.88770854177389</v>
+        <v>28.16611641878601</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>3.861694427940661</v>
+        <v>28.16611637185524</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>40.4063325537761</v>
+        <v>28.16611641171861</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>47.8523948731043</v>
+        <v>28.16611642294647</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>28.50773690254</v>
+        <v>28.16611638861435</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>60.88623338474835</v>
+        <v>28.16611642414405</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>67.45850158296169</v>
+        <v>28.1661164341513</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>68.07438926848172</v>
+        <v>28.16611643569274</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>83.03107036043667</v>
+        <v>28.16611645346045</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>87.47083777932076</v>
+        <v>28.16611645836827</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>30.28839169335972</v>
+        <v>28.16611640663317</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>70.88070197126541</v>
+        <v>28.1661164496733</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>79.1113359763268</v>
+        <v>28.16611646145505</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-1.478238405345053</v>
+        <v>28.16611625841505</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>14.16656622090035</v>
+        <v>28.16611628914713</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>18.08505607611576</v>
+        <v>28.16611629738486</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-6.36843923673591</v>
+        <v>28.1661162555625</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>10.94240791852624</v>
+        <v>28.16611629036382</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>15.4416857222445</v>
+        <v>28.16611629969231</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>3.507595317095687</v>
+        <v>28.16611626552676</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>18.78200288134967</v>
+        <v>28.16611629654472</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>22.74281385976377</v>
+        <v>28.16611630485909</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>20.66813099942816</v>
+        <v>28.16611631132237</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>27.46729157262019</v>
+        <v>28.16611632649727</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>29.38841949147411</v>
+        <v>28.16611633092375</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>0.9186974626882964</v>
+        <v>28.16611628825367</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>16.3217099577953</v>
+        <v>28.16611632562865</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>22.89272513784641</v>
+        <v>28.16611633558896</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>4.1746206144665</v>
+        <v>28.16611630626467</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>23.92406629211317</v>
+        <v>28.16611634061239</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>30.57647716562079</v>
+        <v>28.16611635019068</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-5.843444708685478</v>
+        <v>28.16611630283309</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>16.14355824995803</v>
+        <v>28.16611634172881</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>23.70803782437755</v>
+        <v>28.16611635257535</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>7.036746209265957</v>
+        <v>28.16611631696419</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>26.45070943488762</v>
+        <v>28.16611635163143</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>33.1367224610853</v>
+        <v>28.16611636129881</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>31.93412951983021</v>
+        <v>28.16611636625402</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>42.25652908112356</v>
+        <v>28.16611638384918</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>46.5723440609143</v>
+        <v>28.16611638905038</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>5.64355647253187</v>
+        <v>28.166116339373</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>31.0349286759639</v>
+        <v>28.16611638165593</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>39.74424405252356</v>
+        <v>28.1661163930655</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>7.298635636847231</v>
+        <v>28.16611634841322</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.82936239954465</v>
+        <v>28.16611638215502</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>38.65422282171751</v>
+        <v>28.16611639195509</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-2.54505681368877</v>
+        <v>28.16611634517946</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>22.58436370596988</v>
+        <v>28.16611638338902</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>32.61046770996281</v>
+        <v>28.16611639448671</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>15.71662880847708</v>
+        <v>28.16611636068022</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>37.93871691114794</v>
+        <v>28.1661163947359</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>46.80949388581723</v>
+        <v>28.16611640462713</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>48.67120979290904</v>
+        <v>28.16611640742195</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>60.05740263483199</v>
+        <v>28.16611642465971</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>66.52038381413665</v>
+        <v>28.16611642950014</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>17.17800293679286</v>
+        <v>28.16611637999723</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>46.74892482662204</v>
+        <v>28.1661164213824</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>57.66786713329542</v>
+        <v>28.16611643299267</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>2.742348443074585</v>
+        <v>28.16611626445426</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>23.6883948168288</v>
+        <v>28.16611629621998</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>26.35983578694338</v>
+        <v>28.16611630450662</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-2.018027712395142</v>
+        <v>28.16611626150976</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>21.28423944070683</v>
+        <v>28.16611629748158</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>24.37284641276678</v>
+        <v>28.16611630686545</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>11.3859829227401</v>
+        <v>28.16611627201518</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>31.98856859497134</v>
+        <v>28.1661163040764</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>34.69193025003017</v>
+        <v>28.16611631244012</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.65436793324189</v>
+        <v>28.16611631808179</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>38.62100539243636</v>
+        <v>28.16611633356635</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>39.48816233950574</v>
+        <v>28.16611633803542</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>5.586372676682082</v>
+        <v>28.16611629403496</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>26.39037853509043</v>
+        <v>28.16611633255632</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>31.48275466468306</v>
+        <v>28.16611634259894</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>15.6317374864906</v>
+        <v>28.16611631514128</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>40.2207101498489</v>
+        <v>28.16611635062682</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>44.61740112250445</v>
+        <v>28.16611636024355</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>5.225271440369736</v>
+        <v>28.16611631167077</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>32.67811903412115</v>
+        <v>28.16611635185495</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>37.68836715540368</v>
+        <v>28.16611636274504</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>22.73945011186689</v>
+        <v>28.16611632650461</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>47.01329013043208</v>
+        <v>28.16611636232025</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>51.42350379363434</v>
+        <v>28.16611637202644</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>49.43301243704049</v>
+        <v>28.16611637624398</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>61.6627981403597</v>
+        <v>28.16611639420777</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>64.25002867636177</v>
+        <v>28.16611639944571</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>19.55221772529679</v>
+        <v>28.1661163482497</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>49.91632515730028</v>
+        <v>28.16611639182183</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>55.95337681136103</v>
+        <v>28.16611640330424</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>18.42553893688281</v>
+        <v>28.1661163577304</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>45.82541054477723</v>
+        <v>28.16611639260817</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>52.32048517292985</v>
+        <v>28.16611640244794</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>7.38637763756496</v>
+        <v>28.16611635442752</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>38.01456592570203</v>
+        <v>28.16611639392347</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>45.40287758498684</v>
+        <v>28.16611640506613</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>30.46953506456167</v>
+        <v>28.16611637068413</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>57.58141055920024</v>
+        <v>28.16611640588636</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>64.10136110958932</v>
+        <v>28.16611641581766</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>64.56769890953274</v>
+        <v>28.16611641786698</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>77.93026842691349</v>
+        <v>28.1661164354966</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>82.7513373453243</v>
+        <v>28.16611644037268</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>29.15219268685267</v>
+        <v>28.16611638931469</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>64.03608241031201</v>
+        <v>28.16611643200584</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>72.16806201662389</v>
+        <v>28.16611644369864</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>2.47633066278917</v>
+        <v>28.16611625752474</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>18.16525277759041</v>
+        <v>28.1661162889093</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>20.87015478189058</v>
+        <v>28.16611629727893</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-2.13506409521047</v>
+        <v>28.16611625442023</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>15.21423458676146</v>
+        <v>28.16611628996042</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>18.34070030468737</v>
+        <v>28.16611629943827</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>8.587530148464911</v>
+        <v>28.16611626465187</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>23.89178418119632</v>
+        <v>28.16611629632838</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>26.62940722534756</v>
+        <v>28.16611630477586</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>24.00868993313688</v>
+        <v>28.16611631111651</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>30.85287451992612</v>
+        <v>28.16611632652025</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>32.15339218623426</v>
+        <v>28.16611633100138</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>6.00881237158428</v>
+        <v>28.16611628761798</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>20.45680008886306</v>
+        <v>28.16611632572967</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>25.63019451652427</v>
+        <v>28.16611633586015</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>0.2594515624298044</v>
+        <v>28.16611630597886</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>19.16492269265331</v>
+        <v>28.16611634102892</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>24.20363014264044</v>
+        <v>28.16611635075443</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-10.73814423792181</v>
+        <v>28.1661163021655</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>10.28128567976379</v>
+        <v>28.16611634185653</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>16.01980816044677</v>
+        <v>28.1661163528698</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>2.547408586758229</v>
+        <v>28.16611631664101</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>21.09478843529511</v>
+        <v>28.16611635201711</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>26.1537377154842</v>
+        <v>28.1661163618331</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>25.32920753962911</v>
+        <v>28.16611636670503</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>35.04305149192435</v>
+        <v>28.1661163845512</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>38.49392007102678</v>
+        <v>28.16611638981927</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>1.509825763884685</v>
+        <v>28.1661163393321</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>24.89088268374627</v>
+        <v>28.16611638241846</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>31.62471744701092</v>
+        <v>28.16611639402059</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>8.74220954042617</v>
+        <v>28.16611634996079</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>31.09230008751634</v>
+        <v>28.16611638442746</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>37.93675773396421</v>
+        <v>28.16611639434415</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-3.175578788228432</v>
+        <v>28.1661163463546</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>21.73596186153559</v>
+        <v>28.16611638538501</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>29.5213868024022</v>
+        <v>28.16611639661477</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>16.40530731662776</v>
+        <v>28.16611636232264</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>38.42851985199003</v>
+        <v>28.16611639710993</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>45.302560956528</v>
+        <v>28.16611640711887</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>46.43577173979685</v>
+        <v>28.1661164098102</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>57.37747328840679</v>
+        <v>28.16611642730142</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>62.94848963216536</v>
+        <v>28.16611643219561</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>16.65343420048342</v>
+        <v>28.16611638183614</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>45.11730515309578</v>
+        <v>28.16611642405509</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>53.67937553426374</v>
+        <v>28.16611643582689</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-5.784829214115675</v>
+        <v>28.16611625260666</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>6.380493696799991</v>
+        <v>28.16611628261726</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>8.357539273507545</v>
+        <v>28.16611629061768</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-11.13425557419836</v>
+        <v>28.16611624889147</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>2.242880506669774</v>
+        <v>28.16611628287578</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>4.541513987357581</v>
+        <v>28.16611629193554</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-2.822685815125599</v>
+        <v>28.16611625839288</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>8.950707189131975</v>
+        <v>28.16611628868265</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>10.95257482847431</v>
+        <v>28.16611629675749</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>8.406682819047418</v>
+        <v>28.16611630319403</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>14.11436618136188</v>
+        <v>28.16611631793503</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>15.25674268765369</v>
+        <v>28.16611632224359</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-6.258617220632125</v>
+        <v>28.16611628092777</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>4.261279211687425</v>
+        <v>28.16611631736943</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>8.381071547397873</v>
+        <v>28.16611632704965</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-4.625588582837427</v>
+        <v>28.16611629997309</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>10.78427890687128</v>
+        <v>28.16611633352146</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>15.15872101272077</v>
+        <v>28.16611634284109</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-15.51573244289063</v>
+        <v>28.16611629562913</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>1.560996449034839</v>
+        <v>28.16611633361964</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>6.545262678855025</v>
+        <v>28.16611634417329</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-4.375441343966774</v>
+        <v>28.16611630924019</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>10.66856159989507</v>
+        <v>28.16611634310064</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>15.05741518379509</v>
+        <v>28.16611635250697</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>14.26075526160799</v>
+        <v>28.16611635749404</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>22.93151741123924</v>
+        <v>28.16611637459802</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>26.16866631118049</v>
+        <v>28.16611637966816</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-6.337000924871099</v>
+        <v>28.16611633146201</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>12.90155607421592</v>
+        <v>28.16611637270409</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>18.84211952095334</v>
+        <v>28.1661163838176</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>5.161035852248917</v>
+        <v>28.16611634315531</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>23.92079739941276</v>
+        <v>28.16611637616503</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.91549932829314</v>
+        <v>28.16611638567067</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>-6.995910220284561</v>
+        <v>28.16611633905118</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>13.86669070825419</v>
+        <v>28.16611637643172</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>20.68738430529221</v>
+        <v>28.16611638719601</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>10.45189056914069</v>
+        <v>28.16611635415198</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>28.87638077878246</v>
+        <v>28.16611638746877</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>34.8933833328534</v>
+        <v>28.16611639706283</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>36.08273815237447</v>
+        <v>28.16611639994054</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>45.93723872021794</v>
+        <v>28.16611641671825</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>51.25069233434743</v>
+        <v>28.1661164214263</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>9.723593277052586</v>
+        <v>28.16611637328257</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>33.87048598042725</v>
+        <v>28.16611641372277</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>41.43991629762319</v>
+        <v>28.1661164250042</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>13.31805256459267</v>
+        <v>28.16611626422912</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.4791593759165</v>
+        <v>28.16611629713948</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>33.15904846085576</v>
+        <v>28.16611630613089</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>6.948932377617968</v>
+        <v>28.16611626194721</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>24.80282222314898</v>
+        <v>28.16611629921523</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.04155487689152</v>
+        <v>28.1661163093972</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>18.39780067506168</v>
+        <v>28.16611627307392</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>34.14204716693277</v>
+        <v>28.16611630629043</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>37.86736976470409</v>
+        <v>28.16611631536548</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>37.18333028236364</v>
+        <v>28.16611632199769</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>44.6065696144705</v>
+        <v>28.16611633828073</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>46.69459119908056</v>
+        <v>28.16611634318101</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>20.22742371338487</v>
+        <v>28.16611629728145</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>34.83908809595292</v>
+        <v>28.1661163371864</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>41.36660748362127</v>
+        <v>28.16611634805096</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>11.42606774103964</v>
+        <v>28.16611631646343</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>31.29254866970729</v>
+        <v>28.16611635322762</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>37.63427221030484</v>
+        <v>28.16611636357607</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-1.825501271489767</v>
+        <v>28.16611631342739</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>20.25501958799871</v>
+        <v>28.16611635505954</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>27.47285151236478</v>
+        <v>28.16611636677823</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>12.13505359345545</v>
+        <v>28.16611632893631</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>31.61821726294373</v>
+        <v>28.1661163660425</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>37.99128680231141</v>
+        <v>28.16611637648721</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>38.43158819548293</v>
+        <v>28.16611638144951</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>49.61300370460155</v>
+        <v>28.16611640039349</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>54.11445732528682</v>
+        <v>28.16611640609809</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>14.86474726817888</v>
+        <v>28.16611635262235</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>39.67758050711441</v>
+        <v>28.16611639780438</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>47.65321452290254</v>
+        <v>28.16611641008972</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>15.16987356599586</v>
+        <v>28.16611636024704</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>38.06389393010193</v>
+        <v>28.16611639631455</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>46.544598486469</v>
+        <v>28.16611640691432</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>2.135442521717776</v>
+        <v>28.16611635730639</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>27.63587796293377</v>
+        <v>28.1661163981496</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>37.27820770250041</v>
+        <v>28.16611641015289</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>22.11428444301504</v>
+        <v>28.16611637421873</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>44.65328425557796</v>
+        <v>28.16611641062175</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>53.17770523840036</v>
+        <v>28.16611642132013</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>57.91859764967329</v>
+        <v>28.16611642394954</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>70.41339185691291</v>
+        <v>28.16611644250445</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>76.4240603331012</v>
+        <v>28.16611644780243</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>27.86515033898119</v>
+        <v>28.16611639458852</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>57.35608176323871</v>
+        <v>28.16611643875473</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>67.58983920493176</v>
+        <v>28.16611645128005</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>14.41504180183118</v>
+        <v>28.16611626478497</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>34.53371257719552</v>
+        <v>28.16611629625429</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>38.15483746335967</v>
+        <v>28.16611630457752</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>11.22762942207562</v>
+        <v>28.1661162621222</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>33.59860818316343</v>
+        <v>28.16611629775838</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>37.76269524677743</v>
+        <v>28.16611630718368</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>24.37513254920742</v>
+        <v>28.16611627254604</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>44.15083184414149</v>
+        <v>28.16611630430811</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>47.81252974789736</v>
+        <v>28.16611631270876</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>44.26516909094933</v>
+        <v>28.16611631858463</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>52.76358432479435</v>
+        <v>28.16611633401104</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>54.27326112339263</v>
+        <v>28.16611633846645</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>20.63440546403675</v>
+        <v>28.16611629480295</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>41.0032085869681</v>
+        <v>28.16611633303555</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>47.3935540322806</v>
+        <v>28.16611634311604</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>11.98948071690056</v>
+        <v>28.16611631256959</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>35.36398945325158</v>
+        <v>28.16611634766485</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>41.03021465462288</v>
+        <v>28.16611635732826</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>2.774798269195731</v>
+        <v>28.16611630926326</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>28.86012454068468</v>
+        <v>28.1661163490055</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>35.30867239426481</v>
+        <v>28.16611635994844</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>18.62808473998629</v>
+        <v>28.16611632389014</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>41.68651244695843</v>
+        <v>28.16611635931188</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>47.37817969095663</v>
+        <v>28.16611636906518</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>46.25131319650484</v>
+        <v>28.16611637354429</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>57.72977795398025</v>
+        <v>28.16611639140055</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>61.15690314001689</v>
+        <v>28.16611639663073</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>17.02080181113706</v>
+        <v>28.16611634592395</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>46.37022690921698</v>
+        <v>28.16611638908019</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>54.09498513976045</v>
+        <v>28.1661164006131</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>13.22580013028226</v>
+        <v>28.16611635495537</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>39.41809876027288</v>
+        <v>28.16611638944889</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>47.31726355017213</v>
+        <v>28.16611639932784</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>4.205715963862804</v>
+        <v>28.16611635184065</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>33.4741348473403</v>
+        <v>28.16611639090146</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>42.45279095177575</v>
+        <v>28.16611640208848</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>25.37772124004421</v>
+        <v>28.16611636786212</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>51.28112759501266</v>
+        <v>28.16611640267651</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>59.21808051516025</v>
+        <v>28.16611641264736</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>60.69802393328006</v>
+        <v>28.16611641495799</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>73.2987420777425</v>
+        <v>28.16611643246649</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>79.21862810926234</v>
+        <v>28.16611643733602</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>26.1521011005518</v>
+        <v>28.16611638678805</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>59.92652438907183</v>
+        <v>28.16611642906151</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>69.89463527744262</v>
+        <v>28.16611644079057</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>14.32856919934571</v>
+        <v>28.16611627446294</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>36.12626365403204</v>
+        <v>28.16611630791627</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>40.11167787733265</v>
+        <v>28.16611631694636</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>10.89736924980178</v>
+        <v>28.16611627287925</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>35.13121826410932</v>
+        <v>28.16611631076215</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>39.71623544741726</v>
+        <v>28.16611632098791</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>24.45295500868373</v>
+        <v>28.16611628440835</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>45.87514962453905</v>
+        <v>28.16611631817288</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>49.90904414278688</v>
+        <v>28.16611632728696</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>46.83032053641074</v>
+        <v>28.16611633319188</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>56.40600456003783</v>
+        <v>28.16611634964202</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>58.49976013966024</v>
+        <v>28.16611635456629</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>24.55646368012077</v>
+        <v>28.16611630776486</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>45.64014158186117</v>
+        <v>28.16611634828733</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>52.73195734084464</v>
+        <v>28.16611635921097</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>14.58189648507265</v>
+        <v>28.166116327204</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>39.9648849757839</v>
+        <v>28.16611636454269</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>46.03135475905708</v>
+        <v>28.16611637490497</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>3.587430387405817</v>
+        <v>28.16611632488558</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>31.91171253008194</v>
+        <v>28.1661163671683</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>38.81714363605633</v>
+        <v>28.16611637890264</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>20.11757226289581</v>
+        <v>28.16611634082796</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>45.15738735078128</v>
+        <v>28.16611637851399</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>51.25248604107068</v>
+        <v>28.16611638897266</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>50.29570968766485</v>
+        <v>28.16611639328138</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>63.5868164113955</v>
+        <v>28.16611641241425</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>67.84552626925222</v>
+        <v>28.16611641813216</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>21.73768296124836</v>
+        <v>28.16611636371347</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>53.01446387150975</v>
+        <v>28.16611640956213</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>60.79878657257059</v>
+        <v>28.1661164218744</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>14.17024321129392</v>
+        <v>28.16611636986012</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>42.28336445883842</v>
+        <v>28.1661164064733</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>50.64876707785442</v>
+        <v>28.16611641710486</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>3.623038231982243</v>
+        <v>28.16611636759514</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>35.02996102113428</v>
+        <v>28.16611640905627</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>44.54114613635713</v>
+        <v>28.16611642109556</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>25.7110566923397</v>
+        <v>28.16611638488618</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>53.50696168311627</v>
+        <v>28.16611642183995</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>61.91454637285733</v>
+        <v>28.16611643257041</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>65.28623331443333</v>
+        <v>28.16611643456436</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>79.87476353802042</v>
+        <v>28.16611645331373</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>85.66269268507254</v>
+        <v>28.16611645863107</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>30.47752088963007</v>
+        <v>28.16611640451561</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>66.22160145811308</v>
+        <v>28.16611644932186</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>76.41540137534335</v>
+        <v>28.16611646189811</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>13.58213113006809</v>
+        <v>28.16611627240241</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>30.63322792311703</v>
+        <v>28.16611630420567</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>34.3959984075554</v>
+        <v>28.16611631292998</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>9.034823266985599</v>
+        <v>28.16611627065965</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>27.90003273612206</v>
+        <v>28.16611630667399</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>32.23155797187965</v>
+        <v>28.16611631655348</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>20.22979030226445</v>
+        <v>28.16611628141715</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>36.87556950735502</v>
+        <v>28.16611631351626</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>40.68433610152773</v>
+        <v>28.16611632232172</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>38.94386759982268</v>
+        <v>28.16611632840153</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>46.8181481100663</v>
+        <v>28.16611634412119</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>49.0846614008244</v>
+        <v>28.1661163488958</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>21.16152331503148</v>
+        <v>28.16611630440487</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>36.68758484714459</v>
+        <v>28.16611634292722</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>43.37449114725224</v>
+        <v>28.16611635347821</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>18.10570614004356</v>
+        <v>28.16611632384303</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>38.94767302058405</v>
+        <v>28.16611635936785</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>45.23116474516252</v>
+        <v>28.16611636938664</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>6.754222777107749</v>
+        <v>28.16611632143775</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>29.94196498656999</v>
+        <v>28.16611636166642</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>37.09270852377921</v>
+        <v>28.1661163730118</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>21.06428715702109</v>
+        <v>28.1661163364154</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>41.53508776523975</v>
+        <v>28.16611637227069</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>47.84911551752494</v>
+        <v>28.16611638238268</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>47.4261909176047</v>
+        <v>28.16611638682459</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>59.16860549168993</v>
+        <v>28.16611640513611</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>63.70185218590571</v>
+        <v>28.16611641068253</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>22.86473252426306</v>
+        <v>28.16611635882636</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>48.69343392821484</v>
+        <v>28.16611640246112</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>56.60811885458166</v>
+        <v>28.1661164143536</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>18.27990087121012</v>
+        <v>28.16611636534062</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>41.89328762883584</v>
+        <v>28.16611640018764</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>50.3274235542065</v>
+        <v>28.16611641045002</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>7.072722620398604</v>
+        <v>28.16611636298236</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>33.39051833033534</v>
+        <v>28.16611640244349</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>42.9789304148063</v>
+        <v>28.1661164140647</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>27.09558358673184</v>
+        <v>28.16611637929008</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>50.36407309036291</v>
+        <v>28.16611641446126</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>58.84121151900408</v>
+        <v>28.1661164248191</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>62.96312361682092</v>
+        <v>28.16611642702414</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>75.98401604853396</v>
+        <v>28.16611644496891</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>81.98864749306915</v>
+        <v>28.16611645011645</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>32.10365972407286</v>
+        <v>28.16611639853321</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>62.38837577666706</v>
+        <v>28.1661164411892</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>72.5774666542429</v>
+        <v>28.16611645331723</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>9.086418097543506</v>
+        <v>28.1661162661483</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>32.05058772261189</v>
+        <v>28.16611629948202</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>35.25820479204756</v>
+        <v>28.1661163082729</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>4.648380127634162</v>
+        <v>28.16611626385447</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>30.21487874368826</v>
+        <v>28.16611630160193</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>33.91630893871218</v>
+        <v>28.16611631155681</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>19.08684666513429</v>
+        <v>28.16611627508468</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>41.69944075116582</v>
+        <v>28.16611630872849</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>44.94551998126218</v>
+        <v>28.16611631760115</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>41.42211500269032</v>
+        <v>28.16611632360587</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>50.84662757819913</v>
+        <v>28.16611633992595</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>51.88332237996188</v>
+        <v>28.16611634466939</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>15.60195136146558</v>
+        <v>28.16611629828806</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>39.09503191422229</v>
+        <v>28.16611633875731</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>45.05659131194749</v>
+        <v>28.16611634940465</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>8.815191340762464</v>
+        <v>28.16611631713671</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>35.1911686610341</v>
+        <v>28.16611635430849</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>40.21629850331171</v>
+        <v>28.16611636447253</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>-1.960526419374471</v>
+        <v>28.16611631420002</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>27.49839607640732</v>
+        <v>28.16611635629372</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>33.22374889224349</v>
+        <v>28.16611636780359</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>15.44895422864086</v>
+        <v>28.16611632984732</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>41.50189337487916</v>
+        <v>28.16611636736489</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>46.54572692688349</v>
+        <v>28.16611637762348</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>45.63156536238657</v>
+        <v>28.16611638215353</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>58.41605156684116</v>
+        <v>28.16611640106677</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>61.33441535621436</v>
+        <v>28.16611640661954</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>14.03741273314966</v>
+        <v>28.16611635277124</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>47.16331171090867</v>
+        <v>28.16611639846393</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>53.98661581009495</v>
+        <v>28.16611641058541</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>9.032052135615512</v>
+        <v>28.16611636060012</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>38.00054660100246</v>
+        <v>28.16611639708979</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>45.46965437477331</v>
+        <v>28.16611640751323</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-1.22722120122841</v>
+        <v>28.16611635778857</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>31.15949038786725</v>
+        <v>28.16611639910984</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>39.65435120257865</v>
+        <v>28.16611641091345</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>21.39813160827172</v>
+        <v>28.16611637483313</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>50.06935694979973</v>
+        <v>28.16611641166224</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>57.57134436346118</v>
+        <v>28.16611642218264</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>60.21606577315278</v>
+        <v>28.16611642441864</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>74.12607607695988</v>
+        <v>28.16611644296401</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>79.31302597616886</v>
+        <v>28.16611644813554</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>22.9499096808922</v>
+        <v>28.16611639450901</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>60.32416405465831</v>
+        <v>28.16611643921307</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>69.58969729663268</v>
+        <v>28.16611645157979</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>3.898971662325014</v>
+        <v>28.16611626495376</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>18.65798001198981</v>
+        <v>28.16611629585067</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>21.83870862218253</v>
+        <v>28.16611630422517</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-1.260331515652489</v>
+        <v>28.16611626265281</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>15.0328847244467</v>
+        <v>28.16611629764077</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>18.70046943576384</v>
+        <v>28.16611630712414</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>8.953431821932799</v>
+        <v>28.16611627292754</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>23.31906398688821</v>
+        <v>28.16611630411186</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>26.53846583622243</v>
+        <v>28.16611631256426</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>25.90523787525459</v>
+        <v>28.16611631899327</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>32.30608660633254</v>
+        <v>28.16611633426939</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>34.40424812551707</v>
+        <v>28.16611633881438</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>8.986960857027521</v>
+        <v>28.16611629580037</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>22.3396698927879</v>
+        <v>28.16611633329018</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>28.28665269482123</v>
+        <v>28.1661163434188</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>8.581573908009997</v>
+        <v>28.16611631490055</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>27.806864290205</v>
+        <v>28.16611634948441</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>33.88612651733962</v>
+        <v>28.16611635913581</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-2.31382219463444</v>
+        <v>28.16611631196499</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>19.06568728964906</v>
+        <v>28.1661163511281</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>25.98325955431151</v>
+        <v>28.16611636205744</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>10.50963506301304</v>
+        <v>28.16611632641394</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>29.38078606860015</v>
+        <v>28.16611636131951</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>35.48969886044262</v>
+        <v>28.16611637106069</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>35.35332986815382</v>
+        <v>28.16611637588114</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>45.6887243904136</v>
+        <v>28.16611639367628</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>50.29698046319308</v>
+        <v>28.16611639897074</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>11.45803215121229</v>
+        <v>28.16611634877465</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>35.62049143913435</v>
+        <v>28.16611639129903</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>43.53630948789522</v>
+        <v>28.16611640276595</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>12.17902846105012</v>
+        <v>28.16611635635434</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>34.33309558378269</v>
+        <v>28.16611639030213</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>42.38838229994826</v>
+        <v>28.16611640019175</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>1.59906306760344</v>
+        <v>28.16611635354866</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>26.28764550808679</v>
+        <v>28.16611639199148</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>35.44456875454829</v>
+        <v>28.16611640319059</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>19.91748445975848</v>
+        <v>28.16611636931286</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>41.74508248987492</v>
+        <v>28.16611640357645</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>49.84105285062594</v>
+        <v>28.16611641355806</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>53.54617297914798</v>
+        <v>28.16611641614855</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>65.15370707997049</v>
+        <v>28.16611643357976</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>71.2594622601417</v>
+        <v>28.1661164385032</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>23.87897043292236</v>
+        <v>28.16611638852631</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>52.42492781391299</v>
+        <v>28.16611643011365</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>62.44889372328903</v>
+        <v>28.16611644180697</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>7.921410020713109</v>
+        <v>28.16611627059724</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>23.89301655735851</v>
+        <v>28.16611630220583</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>27.83761562360892</v>
+        <v>28.16611631091326</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>2.819887292685982</v>
+        <v>28.16611626877977</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>20.46526448800048</v>
+        <v>28.16611630457367</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>25.00230361702012</v>
+        <v>28.16611631443404</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>13.31274881317031</v>
+        <v>28.16611627943267</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>28.87340623951356</v>
+        <v>28.1661163113353</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>32.86545040389715</v>
+        <v>28.16611632012372</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>31.98003582407839</v>
+        <v>28.16611632637333</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>39.51490281003973</v>
+        <v>28.16611634202503</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>41.96595036469117</v>
+        <v>28.16611634679001</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>15.18669158469531</v>
+        <v>28.16611630257173</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>29.59799336899784</v>
+        <v>28.16611634087991</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>36.46593564584051</v>
+        <v>28.16611635140193</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>11.58259954684753</v>
+        <v>28.16611632164589</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>31.41947088699582</v>
+        <v>28.16611635696324</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>38.12686161657915</v>
+        <v>28.16611636696926</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>-0.155039858243299</v>
+        <v>28.16611631915515</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>21.89746485764804</v>
+        <v>28.16611635914887</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.52815677191045</v>
+        <v>28.16611637047979</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>13.28951276578671</v>
+        <v>28.16611633400743</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>32.75055363387325</v>
+        <v>28.16611636965331</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>39.49223359480781</v>
+        <v>28.16611637975241</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>39.4991707997405</v>
+        <v>28.16611638433994</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>50.95364152214691</v>
+        <v>28.16611640257397</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>55.81802665354739</v>
+        <v>28.16611640811313</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>15.81035777060668</v>
+        <v>28.16611635655561</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>40.5846137177575</v>
+        <v>28.16611639995552</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>48.97738502756532</v>
+        <v>28.16611641182462</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>12.55968606298831</v>
+        <v>28.16611636315115</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>35.2313050235911</v>
+        <v>28.16611639779475</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>44.06110207992907</v>
+        <v>28.16611640804119</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>1.006339140750942</v>
+        <v>28.1661163607169</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>26.26053511564231</v>
+        <v>28.16611639994766</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>36.2968620358556</v>
+        <v>28.16611641155083</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>20.21710171389767</v>
+        <v>28.16611637689651</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>42.53952845800984</v>
+        <v>28.16611641186238</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>51.41590736007713</v>
+        <v>28.16611642220413</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>55.99538491188304</v>
+        <v>28.16611642455689</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>68.71429710927646</v>
+        <v>28.16611644242134</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>74.98539154558294</v>
+        <v>28.16611644756037</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>25.99430813724806</v>
+        <v>28.16611639627614</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>55.24272578358571</v>
+        <v>28.16611643869916</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>65.89775340970021</v>
+        <v>28.16611645079949</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>17.71951001587709</v>
+        <v>28.16611627626411</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>37.43016419373708</v>
+        <v>28.16611630806002</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>40.69840687459051</v>
+        <v>28.16611631662433</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>16.15340337050017</v>
+        <v>28.16611627479486</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>38.03664950612138</v>
+        <v>28.16611631080087</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>41.8061336511275</v>
+        <v>28.16611632049918</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>29.10464085441236</v>
+        <v>28.16611628565835</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>48.44376534022551</v>
+        <v>28.16611631775004</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>51.75326936899992</v>
+        <v>28.16611632639402</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>49.0593527970549</v>
+        <v>28.16611633222332</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>56.89321241682256</v>
+        <v>28.16611634784434</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>58.27405640681617</v>
+        <v>28.16611635246779</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>28.45833131792567</v>
+        <v>28.16611630807956</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>46.99362360675867</v>
+        <v>28.16611634658571</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>53.31725828487204</v>
+        <v>28.16611635698208</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>16.66727671426086</v>
+        <v>28.16611632595508</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>40.06119053657255</v>
+        <v>28.16611636145753</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>44.98757173707492</v>
+        <v>28.16611637130092</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>7.362042744613305</v>
+        <v>28.16611632375178</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>33.44542599292943</v>
+        <v>28.16611636395512</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>39.05848736055634</v>
+        <v>28.16611637510187</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>23.20928286160618</v>
+        <v>28.16611633885517</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>46.26389668934816</v>
+        <v>28.16611637468788</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>51.21056246023319</v>
+        <v>28.16611638462284</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>50.73236019646542</v>
+        <v>28.16611638897434</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>61.78587381236633</v>
+        <v>28.16611640711344</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>64.91311521182749</v>
+        <v>28.16611641249037</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>24.12513678243543</v>
+        <v>28.16611636090527</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>52.58381452915467</v>
+        <v>28.16611640448688</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>59.17638234776609</v>
+        <v>28.16611641622795</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>16.70106564216466</v>
+        <v>28.16611636735394</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>42.71472808674442</v>
+        <v>28.16611640218454</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>49.85979105557121</v>
+        <v>28.16611641226397</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>7.561791978954575</v>
+        <v>28.16611636517856</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>36.60341076940844</v>
+        <v>28.1661164046211</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>44.73178861318153</v>
+        <v>28.16611641603514</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>28.89881113336297</v>
+        <v>28.16611638162307</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>54.59800755129812</v>
+        <v>28.16611641677768</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>61.77665434034931</v>
+        <v>28.16611642695087</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>64.67286367934636</v>
+        <v>28.1661164290924</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>76.90450227846684</v>
+        <v>28.16611644686053</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>81.78657552760536</v>
+        <v>28.16611645186471</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>32.08429084452277</v>
+        <v>28.16611640054746</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>64.79922822562941</v>
+        <v>28.16611644315246</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>73.68285768346331</v>
+        <v>28.16611645511624</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>8.533077335008265</v>
+        <v>28.16611626828185</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>31.56992732567577</v>
+        <v>28.16611630151751</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>34.86179734884409</v>
+        <v>28.16611631028309</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>4.590344919637179</v>
+        <v>28.16611626624232</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>30.23861063872739</v>
+        <v>28.16611630387873</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>34.03542159577747</v>
+        <v>28.16611631380496</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>18.95342549876155</v>
+        <v>28.16611627746334</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>41.63937864194125</v>
+        <v>28.16611631100818</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>44.97037555992127</v>
+        <v>28.1661163198553</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>41.76545879439199</v>
+        <v>28.16611632583486</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>51.14360080474012</v>
+        <v>28.16611634210498</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>52.19724232604665</v>
+        <v>28.16611634684546</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>15.83171806529102</v>
+        <v>28.16611630055802</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>39.41085151502527</v>
+        <v>28.16611634089858</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>45.50305892404822</v>
+        <v>28.16611635152051</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>9.216126683471732</v>
+        <v>28.16611631929506</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>35.68469347277956</v>
+        <v>28.16611635636403</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>40.8570748447028</v>
+        <v>28.16611636648662</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>-1.256500037157473</v>
+        <v>28.16611631658627</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>28.30722036684125</v>
+        <v>28.16611635856355</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>34.19884843008199</v>
+        <v>28.16611637002648</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>16.22456675327015</v>
+        <v>28.16611633221202</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>42.37143889773428</v>
+        <v>28.16611636962581</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>47.56331425554652</v>
+        <v>28.16611637984258</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>46.65917194396881</v>
+        <v>28.16611638433521</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>59.35010880348727</v>
+        <v>28.16611640320031</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>62.35526620787438</v>
+        <v>28.16611640874405</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>14.90169340956189</v>
+        <v>28.16611635500113</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>48.17226003226806</v>
+        <v>28.16611640056554</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>55.15286849244988</v>
+        <v>28.16611641263548</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>9.216515286514788</v>
+        <v>28.16611636226192</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>38.19034364274091</v>
+        <v>28.1661163986401</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>45.84232779208665</v>
+        <v>28.16611640902633</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-0.8802081021281687</v>
+        <v>28.16611635965787</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>31.51248785185076</v>
+        <v>28.16611640085289</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>40.21417877790735</v>
+        <v>28.16611641261436</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>21.68458117741593</v>
+        <v>28.16611637665384</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>50.36171472815185</v>
+        <v>28.16611641337043</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>58.04801797500934</v>
+        <v>28.16611642385328</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>60.71618345093688</v>
+        <v>28.16611642606003</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>74.50095214959401</v>
+        <v>28.16611644455691</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>79.72990188240411</v>
+        <v>28.16611644971951</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>23.31678645421603</v>
+        <v>28.16611639621473</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>60.70378693148515</v>
+        <v>28.16611644077963</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>70.23015384275084</v>
+        <v>28.16611645310144</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.152</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.886</v>
+        <v>18.273</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.036</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.883</v>
+        <v>18.588</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.031</v>
+        <v>0.722</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.331</v>
+        <v>14.196</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>28.16611626675877</v>
+        <v>0.1401890721282335</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>28.16611629926168</v>
+        <v>20.18900576248716</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.16611630818202</v>
+        <v>24.03516450734674</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>28.16611626471892</v>
+        <v>-1.43499497829578</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28.16611630152554</v>
+        <v>15.4640661274683</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.16611631162703</v>
+        <v>19.06516565775621</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>28.16611627569992</v>
+        <v>7.531491615912842</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.16611630850519</v>
+        <v>24.6028764104363</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.16611631750851</v>
+        <v>28.27728376099838</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.16611632401734</v>
+        <v>25.68579470199863</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>28.16611634011455</v>
+        <v>32.20150859933241</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28.16611634499074</v>
+        <v>34.92588571133552</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>28.16611629954594</v>
+        <v>7.082530230899382</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>28.16611633895218</v>
+        <v>23.83736821231389</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28.16611634972918</v>
+        <v>29.31211100592718</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>28.16611631918706</v>
+        <v>2.424745046505173</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.1661163555205</v>
+        <v>24.8449679508938</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28.16611636577807</v>
+        <v>31.30506190978859</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>28.16611631645423</v>
+        <v>-3.50933969134023</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28.16611635759858</v>
+        <v>15.03943103201692</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.16611636921436</v>
+        <v>21.32684054177074</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>28.16611633178135</v>
+        <v>6.952413976309606</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>28.16611636845277</v>
+        <v>26.29733565396663</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>28.16611637880576</v>
+        <v>32.42754462025606</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28.16611638361686</v>
+        <v>31.48298478401935</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.16611640236414</v>
+        <v>40.36248888902031</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>28.16611640803296</v>
+        <v>45.02500869277379</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>28.16611635504863</v>
+        <v>8.261730049169341</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.16611639970338</v>
+        <v>30.83579415545364</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>28.16611641187355</v>
+        <v>37.65168341601134</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>28.16611636198926</v>
+        <v>5.137594433250275</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>28.16611639762727</v>
+        <v>29.70264958479484</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>28.16611640813774</v>
+        <v>36.7492458761841</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>28.16611635933577</v>
+        <v>-0.05846683563732213</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>28.16611639969261</v>
+        <v>20.9905288918319</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>28.16611641159477</v>
+        <v>27.5854835994547</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>28.16611637602027</v>
+        <v>13.60872812698345</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>28.1661164119898</v>
+        <v>35.00035553243308</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>28.16611642259804</v>
+        <v>41.65610563431527</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>28.16611642510379</v>
+        <v>42.58153745949076</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>28.16611644346829</v>
+        <v>51.61015142764549</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>28.16611644873201</v>
+        <v>56.80508447810064</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.1661163960273</v>
+        <v>17.28796208495458</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>28.1661164396707</v>
+        <v>42.44504736640469</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>28.1661164520837</v>
+        <v>50.17169486607816</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>28.16611626867503</v>
+        <v>6.642297472188787</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>28.16611630177935</v>
+        <v>28.74591102076127</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>28.16611631044274</v>
+        <v>32.4913259045623</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>28.16611626635792</v>
+        <v>5.379784072662723</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>28.1661163038456</v>
+        <v>24.3694051639215</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>28.16611631365611</v>
+        <v>27.80335506748062</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>28.1661162775142</v>
+        <v>15.87960184210915</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>28.16611631092647</v>
+        <v>35.0164025861723</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>28.16611631967045</v>
+        <v>38.58570120644514</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>28.16611632525874</v>
+        <v>35.35035559232948</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>28.16611634139716</v>
+        <v>42.46131343546888</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>28.16611634604186</v>
+        <v>44.70202509658905</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>28.16611630005972</v>
+        <v>13.81782401363438</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>28.16611634022173</v>
+        <v>32.91980264453917</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>28.16611635072033</v>
+        <v>38.58692919080383</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>28.16611631906182</v>
+        <v>5.756934219662991</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>28.1661163559811</v>
+        <v>30.16281557401648</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>28.16611636600478</v>
+        <v>36.09978275328579</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>28.16611631605901</v>
+        <v>0.4375332273524073</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>28.16611635786678</v>
+        <v>21.01787972327372</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.16611636921769</v>
+        <v>26.70640970728096</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>28.16611633162191</v>
+        <v>12.35820993816217</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>28.16611636888463</v>
+        <v>33.70585498447214</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>28.16611637900154</v>
+        <v>39.31923351560538</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>28.16611638318626</v>
+        <v>38.38731555577402</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>28.16611640187372</v>
+        <v>47.79628417706002</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>28.16611640730735</v>
+        <v>51.8433729990164</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>28.16611635396789</v>
+        <v>13.0654758908904</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>28.16611639931554</v>
+        <v>37.8163815224037</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>28.16611641128175</v>
+        <v>44.42462260735353</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>28.16611636248653</v>
+        <v>8.746093291377218</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>28.1661163987484</v>
+        <v>35.47434773106185</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>28.1661164090102</v>
+        <v>42.09417042882986</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>28.16611635964458</v>
+        <v>3.771740151077548</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>28.16611640070789</v>
+        <v>27.04308955471187</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>28.16611641232847</v>
+        <v>33.15045604967511</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>28.16611637663409</v>
+        <v>19.03790943906496</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>28.16611641323329</v>
+        <v>42.61604901349058</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>28.16611642359055</v>
+        <v>48.8482120603449</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>28.16611642554001</v>
+        <v>49.38895235252807</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>28.16611644386328</v>
+        <v>59.10028926491673</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>28.16611644892793</v>
+        <v>63.79801641108774</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>28.16611639578932</v>
+        <v>22.08310944013399</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>28.16611644018348</v>
+        <v>49.58641029279886</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>28.16611645237501</v>
+        <v>57.114371849669</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>28.16611626794831</v>
+        <v>5.56921001709398</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>28.16611630104332</v>
+        <v>27.37835481645577</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>28.16611630970944</v>
+        <v>30.86881397232817</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>28.16611626560326</v>
+        <v>3.841725486627915</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>28.16611630308038</v>
+        <v>22.55109729259445</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>28.16611631289398</v>
+        <v>25.6696342350638</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>28.16611627676627</v>
+        <v>14.35273682209874</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>28.16611631016913</v>
+        <v>33.18381091417669</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28.16611631891587</v>
+        <v>36.51472524285813</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>28.1661163246585</v>
+        <v>33.85648572347004</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>28.16611634079724</v>
+        <v>40.80771170953415</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>28.16611634544882</v>
+        <v>42.9276198960503</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>28.1661162995017</v>
+        <v>12.60340779176617</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>28.16611633965361</v>
+        <v>31.44490299132341</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>28.16611635015844</v>
+        <v>36.77494569844532</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>28.16611631876273</v>
+        <v>6.696337564311143</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>28.16611635568826</v>
+        <v>30.86954371576319</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>28.1661163657127</v>
+        <v>36.55726855038993</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>28.16611631575619</v>
+        <v>0.8344223082363058</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>28.16611635757103</v>
+        <v>21.19043441971576</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>28.16611636892281</v>
+        <v>26.58172214648627</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>28.16611633134788</v>
+        <v>12.89548198157381</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>28.1661163686169</v>
+        <v>33.99554121623378</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>28.16611637873459</v>
+        <v>39.37694530003804</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>28.16611638304749</v>
+        <v>38.82229613329885</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>28.16611640173702</v>
+        <v>48.02795696668495</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>28.16611640717973</v>
+        <v>51.94350101905388</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>28.16611635384719</v>
+        <v>13.68827448892463</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>28.16611639919881</v>
+        <v>38.22026916514314</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>28.166116411172</v>
+        <v>44.48737690213166</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>28.16611636234713</v>
+        <v>9.797128715380703</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>28.16611639861647</v>
+        <v>36.30781366359392</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>28.16611640887842</v>
+        <v>42.71122408498</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>28.16611635948517</v>
+        <v>4.268472096653493</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>28.16611640055694</v>
+        <v>27.34329388770476</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>28.16611641217768</v>
+        <v>33.1839169847716</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>28.16611637651133</v>
+        <v>19.69986683413632</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>28.16611641311807</v>
+        <v>43.04210373103576</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>28.16611642347548</v>
+        <v>49.07541782358862</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>28.16611642553767</v>
+        <v>49.95041229019471</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>28.16611644386505</v>
+        <v>59.49685367086789</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>28.16611644893617</v>
+        <v>64.05525051513456</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>28.16611639579925</v>
+        <v>22.81110226021312</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>28.16611644019667</v>
+        <v>50.11151343521269</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>28.16611645239322</v>
+        <v>57.32752142600047</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>28.1661162624798</v>
+        <v>-1.142347880795853</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>28.16611629474778</v>
+        <v>18.32806479556968</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>28.16611630359694</v>
+        <v>21.95704253053447</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>28.16611626001785</v>
+        <v>-2.996425715304053</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>28.16611629655844</v>
+        <v>13.32907213058753</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>28.16611630657932</v>
+        <v>16.73080313561283</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>28.16611627076926</v>
+        <v>5.689732114570631</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>28.16611630333741</v>
+        <v>22.22345076324462</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.16611631226889</v>
+        <v>25.66689771869829</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>28.16611631891025</v>
+        <v>22.96376546530929</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>28.16611633488174</v>
+        <v>29.29188001307703</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>28.16611633973523</v>
+        <v>32.03160353252134</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>28.16611629478619</v>
+        <v>5.169976150504592</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>28.16611633389158</v>
+        <v>21.26292025254025</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>28.16611634458265</v>
+        <v>26.54074416705809</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>28.16611631477516</v>
+        <v>0.2532817996873185</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>28.16611635085093</v>
+        <v>22.00848868835552</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>28.16611636104178</v>
+        <v>28.16415576473471</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>28.16611631159838</v>
+        <v>-5.972463959894615</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>28.16611635245094</v>
+        <v>11.92297437225758</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.16611636399116</v>
+        <v>17.91470050681643</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>28.16611632667921</v>
+        <v>4.129081380742427</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>28.16611636309056</v>
+        <v>22.85102024733261</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28.16611637337622</v>
+        <v>28.67007041126553</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>28.16611637831162</v>
+        <v>27.66370416816071</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>28.16611639692338</v>
+        <v>36.30116127201715</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>28.16611640257308</v>
+        <v>40.96756349145807</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>28.16611635008983</v>
+        <v>5.349619996993734</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>28.1661163944151</v>
+        <v>27.12076786452034</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>28.16611640650699</v>
+        <v>33.6439939129354</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>28.16611635816306</v>
+        <v>3.93015445298937</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>28.16611639356889</v>
+        <v>27.82859246869891</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>28.16611640400091</v>
+        <v>34.5962579565963</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>28.1661163550874</v>
+        <v>-1.559703165475995</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>28.16611639518132</v>
+        <v>18.82157560234525</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>28.16611640699464</v>
+        <v>25.15213397807194</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>28.16611637157917</v>
+        <v>11.76530287011706</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>28.16611640731436</v>
+        <v>32.53381834859848</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>28.16611641784342</v>
+        <v>38.90026402380336</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>28.1661164204864</v>
+        <v>39.6475564105731</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>28.16611643872797</v>
+        <v>48.42814865526913</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>28.16611644396745</v>
+        <v>53.60835264393013</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>28.1661163917183</v>
+        <v>15.23063249429751</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>28.1661164350695</v>
+        <v>39.57524894006108</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>28.16611644739368</v>
+        <v>47.01693049776839</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>28.16611627167832</v>
+        <v>4.484862954209838</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>28.16611630410143</v>
+        <v>25.22014646715559</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>28.16611631288768</v>
+        <v>29.01878723832247</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>28.16611626971567</v>
+        <v>3.026087030484245</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>28.16611630643193</v>
+        <v>20.64050733735204</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>28.16611631638157</v>
+        <v>24.20806402095621</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>28.1661162807469</v>
+        <v>12.50580959612727</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>28.16611631347163</v>
+        <v>30.2627774699825</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>28.16611632233962</v>
+        <v>33.88030449657019</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>28.16611632829943</v>
+        <v>30.6206461104871</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>28.16611634427453</v>
+        <v>37.45918221085099</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>28.16611634909085</v>
+        <v>40.1230499474791</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>28.16611630375861</v>
+        <v>11.36568691997914</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>28.16611634301215</v>
+        <v>28.65512432425537</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>28.16611635363758</v>
+        <v>34.05364999508032</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>28.16611632448681</v>
+        <v>8.621121460653272</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>28.16611636071358</v>
+        <v>31.71299690629028</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.1661163708118</v>
+        <v>37.95457771332519</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>28.16611632188931</v>
+        <v>2.972363626393808</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28.16611636291286</v>
+        <v>22.2277879620278</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>28.1661163743482</v>
+        <v>28.30749874577347</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>28.16611633725841</v>
+        <v>14.0706423228559</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>28.16611637382217</v>
+        <v>34.08400665613057</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>28.16611638401434</v>
+        <v>39.98798798914815</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>28.16611638835615</v>
+        <v>38.68646421172473</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>28.16611640696698</v>
+        <v>47.86144589590797</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>28.16611641256517</v>
+        <v>52.45612112587493</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>28.16611635974142</v>
+        <v>14.95774867135053</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>28.16611640421298</v>
+        <v>38.06018812567399</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>28.16611641620419</v>
+        <v>44.63419933036513</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>28.16611636642158</v>
+        <v>10.35548233468448</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>28.16611640195713</v>
+        <v>35.53826956176441</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>28.1661164123158</v>
+        <v>42.43150443034156</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>28.16611636388394</v>
+        <v>5.468661673318127</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>28.16611640412477</v>
+        <v>27.15719548110183</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>28.16611641585503</v>
+        <v>33.61414071593724</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>28.16611638059303</v>
+        <v>19.67799810341387</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>28.16611641645915</v>
+        <v>41.68711341374213</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>28.16611642691418</v>
+        <v>48.17863067281511</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>28.16611642899365</v>
+        <v>48.75446351331132</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>28.16611644724203</v>
+        <v>58.05900926471186</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>28.16611645244239</v>
+        <v>63.14566986070091</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>28.16611639988575</v>
+        <v>22.97057348733342</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>28.16611644336625</v>
+        <v>48.6357907573082</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>28.16611645561379</v>
+        <v>56.15980360802408</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>28.16611627873526</v>
+        <v>6.094297052936263</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>28.16611631003601</v>
+        <v>27.3402150841478</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>28.16611631815792</v>
+        <v>30.82646298436595</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>28.16611627681232</v>
+        <v>5.00235423758707</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>28.16611631225761</v>
+        <v>23.39496373000013</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>28.16611632145494</v>
+        <v>26.63433672046639</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>28.16611628748188</v>
+        <v>15.04877170749299</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>28.1661163190738</v>
+        <v>33.45039841107818</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>28.16611632727126</v>
+        <v>36.77000683857503</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>28.1661163322147</v>
+        <v>33.19068352747649</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>28.16611634742329</v>
+        <v>40.16302132558866</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>28.16611635182494</v>
+        <v>42.24235361812242</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>28.16611630824043</v>
+        <v>12.80237308742627</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>28.16611634610054</v>
+        <v>30.86078337619473</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>28.16611635594914</v>
+        <v>35.98153470452503</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>28.16611632912889</v>
+        <v>11.913428950681</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>28.16611636411423</v>
+        <v>35.62645913824217</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.16611637347521</v>
+        <v>41.06007521039967</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>28.1661163266645</v>
+        <v>7.113159332445605</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>28.16611636628226</v>
+        <v>27.29205801256197</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>28.16611637688273</v>
+        <v>32.55120715061096</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>28.16611634157521</v>
+        <v>18.96128487948807</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>28.166116376886</v>
+        <v>39.73330910879567</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>28.16611638633406</v>
+        <v>44.85322846773381</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>28.16611638992958</v>
+        <v>43.58394516329261</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>28.16611640759817</v>
+        <v>52.83320146579149</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>28.16611641272387</v>
+        <v>56.62107649369405</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>28.16611636207585</v>
+        <v>19.3884637012331</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>28.16611640496546</v>
+        <v>43.17753353061531</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>28.1661164161331</v>
+        <v>49.07159176426948</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>28.16611636913768</v>
+        <v>13.77788726695968</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>28.16611640346465</v>
+        <v>39.49906388546765</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>28.1661164130803</v>
+        <v>45.61986335783836</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>28.16611636675425</v>
+        <v>9.454775516954944</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>28.16611640562646</v>
+        <v>31.96265505481813</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>28.16611641651532</v>
+        <v>37.65863975080907</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>28.1661163829735</v>
+        <v>24.30521281143164</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>28.1661164176198</v>
+        <v>47.00084258479215</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>28.1661164273249</v>
+        <v>52.74762236299182</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>28.16611642882559</v>
+        <v>53.03200584254201</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>28.16611644615515</v>
+        <v>62.47827188735185</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>28.16611645093707</v>
+        <v>66.75687580776628</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>28.16611640051297</v>
+        <v>26.94786785034381</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>28.16611644246732</v>
+        <v>53.21396151630519</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>28.16611645388979</v>
+        <v>60.01516438058772</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>28.16611626590108</v>
+        <v>-2.418320074461626</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>28.16611629717071</v>
+        <v>16.71678790251027</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>28.16611630559367</v>
+        <v>20.21251329709799</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>28.16611626375988</v>
+        <v>-3.818186079565962</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>28.16611629916993</v>
+        <v>12.42646741316304</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>28.16611630870818</v>
+        <v>15.61541879853099</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>28.16611627419924</v>
+        <v>5.082878539707309</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>28.16611630575976</v>
+        <v>21.39179483588513</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>28.16611631426107</v>
+        <v>24.74677444153792</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>28.16611632066693</v>
+        <v>23.11769603837208</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>28.16611633608949</v>
+        <v>29.16056884995963</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>28.16611634063253</v>
+        <v>31.32698766788237</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>28.16611629707519</v>
+        <v>4.612095490256404</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>28.16611633501478</v>
+        <v>20.91804521956395</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>28.16611634520539</v>
+        <v>26.02085875830608</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>28.16611631565598</v>
+        <v>0.8702479652848254</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>28.16611635066002</v>
+        <v>22.50378228483662</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>28.16611636038364</v>
+        <v>28.36621496703138</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>28.1661163128699</v>
+        <v>-4.555684252551149</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>28.16611635250883</v>
+        <v>13.49691175601406</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>28.16611636351995</v>
+        <v>19.13250391544748</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>28.16611632757022</v>
+        <v>5.945258133534416</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>28.16611636289987</v>
+        <v>24.65755044299639</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>28.16611637271394</v>
+        <v>30.23421105613866</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>28.16611637756328</v>
+        <v>30.01548205870861</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>28.16611639546945</v>
+        <v>38.31801879634596</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>28.16611640076976</v>
+        <v>42.1885985981657</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>28.1661163500468</v>
+        <v>7.38482726639727</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>28.16611639306633</v>
+        <v>29.38216724568669</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>28.16611640464561</v>
+        <v>35.64403393960635</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>28.16611635775503</v>
+        <v>4.697419775607003</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>28.16611639210229</v>
+        <v>28.49909151443981</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>28.16611640206236</v>
+        <v>34.91765334661062</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>28.1661163550863</v>
+        <v>-0.2707868792786279</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>28.16611639398148</v>
+        <v>20.30653980661404</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>28.16611640526036</v>
+        <v>26.23320762607265</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>28.16611637114937</v>
+        <v>13.43728039153455</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>28.16611640581614</v>
+        <v>34.22484422474281</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>28.16611641586886</v>
+        <v>40.3054729346774</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>28.16611641852301</v>
+        <v>41.59447773357996</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>28.16611643605178</v>
+        <v>50.15624248077403</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>28.16611644098719</v>
+        <v>54.61208064793234</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>28.16611639050721</v>
+        <v>17.03094379111055</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.16611643255991</v>
+        <v>41.57818152245751</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>28.16611644436177</v>
+        <v>48.67552076712937</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>28.16611626590494</v>
+        <v>-5.904279909532441</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>28.16611629860161</v>
+        <v>14.31789531425273</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>28.16611630745577</v>
+        <v>18.08216579391045</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>28.16611626364059</v>
+        <v>-7.704986307573943</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>28.16611630066663</v>
+        <v>9.377682315474008</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>28.16611631069317</v>
+        <v>12.88046859303288</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>28.1661162746116</v>
+        <v>1.044404981539163</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>28.16611630761243</v>
+        <v>18.30528301309335</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>28.16611631654896</v>
+        <v>21.88801526293892</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>28.16611632280541</v>
+        <v>19.09352082543929</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>28.16611633892658</v>
+        <v>25.80673402353996</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>28.16611634378443</v>
+        <v>28.48580753687383</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>28.16611629815801</v>
+        <v>0.2783324309722559</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>28.16611633776153</v>
+        <v>17.14827720112774</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>28.16611634846791</v>
+        <v>22.54400593022776</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>28.16611631865243</v>
+        <v>-4.963389009161347</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>28.16611635518729</v>
+        <v>17.51445289873607</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>28.16611636537919</v>
+        <v>23.7782698949344</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>28.1661163157288</v>
+        <v>-11.01331539509667</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>28.16611635710125</v>
+        <v>7.602211679337808</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>28.16611636864265</v>
+        <v>13.66386824826028</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>28.16611633108253</v>
+        <v>-0.7764485078748393</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>28.16611636795725</v>
+        <v>18.64139265163061</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>28.16611637824395</v>
+        <v>24.57201907157613</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>28.16611638288179</v>
+        <v>23.75504026654509</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>28.16611640165921</v>
+        <v>32.80070970335575</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>28.16611640731849</v>
+        <v>37.46873423336212</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>28.16611635412526</v>
+        <v>0.5528207581672397</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>28.16611639898915</v>
+        <v>23.12472934633299</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>28.16611641109473</v>
+        <v>29.72849311949815</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>28.16611636160166</v>
+        <v>-2.186268455628728</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>28.16611639745068</v>
+        <v>22.44807791746442</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>28.16611640790763</v>
+        <v>29.37857180044517</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>28.16611635877808</v>
+        <v>-7.492619115569376</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>28.16611639937388</v>
+        <v>13.62287783316068</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>28.16611641121544</v>
+        <v>20.0793988171618</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>28.16611637551691</v>
+        <v>5.929576867470079</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>28.16611641169942</v>
+        <v>27.40811949024052</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>28.16611642225364</v>
+        <v>33.94093991618288</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>28.16611642459898</v>
+        <v>34.88792947685566</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>28.16611644301927</v>
+        <v>44.12841287493133</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>28.16611644827488</v>
+        <v>49.29479692975887</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>28.16611639532161</v>
+        <v>9.606546913817265</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>28.16611643919935</v>
+        <v>34.79536032245992</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>28.16611645156654</v>
+        <v>42.34197249434732</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>28.16611628430554</v>
+        <v>12.56963808161242</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>28.16611631648339</v>
+        <v>34.87442677023808</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>28.16611632488671</v>
+        <v>38.68041812984491</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>28.16611628314414</v>
+        <v>12.61767276522506</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>28.16611631958266</v>
+        <v>32.02764338552747</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>28.16611632909867</v>
+        <v>35.52374833732473</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>28.16611629435423</v>
+        <v>23.43950015274266</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>28.16611632683141</v>
+        <v>42.78089288888843</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>28.1661163353129</v>
+        <v>46.44218740356182</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>28.1661163403258</v>
+        <v>43.31304729090363</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>28.16611635597869</v>
+        <v>50.60388835766285</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>28.16611636049782</v>
+        <v>52.69171785761083</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>28.16611631558953</v>
+        <v>22.25556166950748</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>28.16611635455511</v>
+        <v>41.44176700911628</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>28.16611636474704</v>
+        <v>47.15570076598128</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>28.16611633325495</v>
+        <v>10.16072136295486</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>28.16611636915448</v>
+        <v>34.79664332848451</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>28.16611637880728</v>
+        <v>40.58032368300369</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>28.16611633138375</v>
+        <v>5.930838734898906</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>28.16611637203673</v>
+        <v>26.97703589618759</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>28.16611638296766</v>
+        <v>32.53224744296521</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>28.1661163468461</v>
+        <v>18.1347425040034</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>28.16611638307957</v>
+        <v>39.71784999011071</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>28.16611639282216</v>
+        <v>45.2037751614609</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>28.1661163965137</v>
+        <v>44.53608544709722</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>28.16611641464753</v>
+        <v>54.06957474982293</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>28.16611641990368</v>
+        <v>57.87586387298444</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>28.16611636788335</v>
+        <v>19.66758533903634</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>28.1661164119225</v>
+        <v>44.50543514368302</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>28.16611642344564</v>
+        <v>50.96372303849184</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>28.16611637366877</v>
+        <v>12.00498786446324</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>28.16611640887101</v>
+        <v>38.77036079443603</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>28.16611641878601</v>
+        <v>45.21002024520597</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>28.16611637185524</v>
+        <v>8.235336262042225</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>28.16611641171861</v>
+        <v>31.74805335155956</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>28.16611642294647</v>
+        <v>37.71897346304001</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>28.16611638861435</v>
+        <v>23.55678379000964</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>28.16611642414405</v>
+        <v>47.18196712287479</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>28.1661164341513</v>
+        <v>53.26284829458588</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>28.16611643569274</v>
+        <v>54.07032792229015</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>28.16611645346045</v>
+        <v>63.83059603617704</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>28.16611645836827</v>
+        <v>68.20413926383367</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>28.16611640663317</v>
+        <v>27.24710759127686</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>28.1661164496733</v>
+        <v>54.66352608647256</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>28.16611646145505</v>
+        <v>62.01467145610263</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>28.16611625841505</v>
+        <v>-5.393816806101121</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>28.16611628914713</v>
+        <v>13.4220912840249</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>28.16611629738486</v>
+        <v>16.82579716986344</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>28.1661162555625</v>
+        <v>-7.702709285842296</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>28.16611629036382</v>
+        <v>8.107736417101133</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>28.16611629969231</v>
+        <v>11.21336092353677</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>28.16611626552676</v>
+        <v>0.7411095876998033</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>28.16611629654472</v>
+        <v>16.84508923763999</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>28.16611630485909</v>
+        <v>20.08724686382882</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>28.16611631132237</v>
+        <v>18.00791932244995</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>28.16611632649727</v>
+        <v>23.75288580956073</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>28.16611633092375</v>
+        <v>26.10699996074957</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>28.16611628825367</v>
+        <v>-0.8483690011606555</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>28.16611632562865</v>
+        <v>15.36266241274585</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>28.16611633558896</v>
+        <v>20.41070443953712</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>28.16611630626467</v>
+        <v>-2.870362476439436</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>28.16611634061239</v>
+        <v>18.18610818504833</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>28.16611635019068</v>
+        <v>24.09204751665868</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>28.16611630283309</v>
+        <v>-8.96832881747498</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>28.16611634172881</v>
+        <v>8.402631793262643</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>28.16611635257535</v>
+        <v>14.08215157187636</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>28.16611631696419</v>
+        <v>0.9594540309492388</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>28.16611635163143</v>
+        <v>19.2167431616155</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>28.16611636129881</v>
+        <v>24.82197957788116</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>28.16611636625402</v>
+        <v>24.00259919846861</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>28.16611638384918</v>
+        <v>31.94404346412186</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>28.16611638905038</v>
+        <v>36.0409644113938</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>28.166116339373</v>
+        <v>1.311826234758584</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>28.16611638165593</v>
+        <v>22.86726633270537</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>28.1661163930655</v>
+        <v>29.24939661911088</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>28.16611634841322</v>
+        <v>0.9211641086125297</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>28.16611638215502</v>
+        <v>24.15757275506864</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>28.16611639195509</v>
+        <v>30.62732250726193</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>28.16611634517946</v>
+        <v>-4.894395706306167</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>28.16611638338902</v>
+        <v>15.0297139940043</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>28.16611639448671</v>
+        <v>20.99523939304536</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>28.16611636068022</v>
+        <v>8.295286069423957</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>28.1661163947359</v>
+        <v>28.64192607057443</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>28.16611640462713</v>
+        <v>34.75835179872841</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>28.16611640742195</v>
+        <v>35.47624748208108</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>28.16611642465971</v>
+        <v>43.74062885586489</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>28.16611642950014</v>
+        <v>48.48782465928067</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>28.16611637999723</v>
+        <v>11.04490334550198</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>28.1661164213824</v>
+        <v>35.15630202186536</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>28.16611643299267</v>
+        <v>42.36495321854824</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>28.16611626445426</v>
+        <v>0.132704603433357</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>28.16611629621998</v>
+        <v>20.78226022386017</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>28.16611630450662</v>
+        <v>24.02275847532962</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>28.16611626150976</v>
+        <v>-2.476480101249486</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>28.16611629748158</v>
+        <v>15.12621999071825</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>28.16611630686545</v>
+        <v>18.04484245030002</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>28.16611627201518</v>
+        <v>7.260875741002454</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>28.1661163040764</v>
+        <v>25.06242149861181</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>28.16611631244012</v>
+        <v>28.12780766580243</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>28.16611631808179</v>
+        <v>25.25802262812608</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>28.16611633356635</v>
+        <v>31.86049707113222</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>28.16611633803542</v>
+        <v>33.95678974066288</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>28.16611629403496</v>
+        <v>4.886580813784814</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>28.16611633255632</v>
+        <v>22.5973785171415</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>28.16611634259894</v>
+        <v>27.47444242266706</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>28.16611631514128</v>
+        <v>6.915858431309649</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.16611635062682</v>
+        <v>29.97311088028852</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>28.16611636024355</v>
+        <v>35.37088071882974</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>28.16611631167077</v>
+        <v>0.6607224991639278</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>28.16611635185495</v>
+        <v>19.97553282657242</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>28.16611636274504</v>
+        <v>25.11533985860633</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>28.16611632650461</v>
+        <v>12.19692877762499</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>28.16611636232025</v>
+        <v>32.30733764542473</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>28.16611637202644</v>
+        <v>37.39129917532645</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>28.16611637624398</v>
+        <v>36.46260487204255</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>28.16611639420777</v>
+        <v>45.3082876136826</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>28.16611639944571</v>
+        <v>49.17252664114269</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>28.1661163482497</v>
+        <v>12.26307319426163</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>28.16611639182183</v>
+        <v>35.60708616575612</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>28.16611640330424</v>
+        <v>41.43518170087322</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>28.1661163577304</v>
+        <v>10.26524858804836</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>28.16611639260817</v>
+        <v>35.58248094466671</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>28.16611640244794</v>
+        <v>41.7069027561612</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>28.16611635442752</v>
+        <v>4.346716145187894</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>28.16611639392347</v>
+        <v>26.28947521205713</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>28.16611640506613</v>
+        <v>31.88511695851086</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>28.16611637068413</v>
+        <v>19.15355259586222</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>28.16611640588636</v>
+        <v>41.43120151584195</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>28.16611641581766</v>
+        <v>47.17930925254733</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>28.16611641786698</v>
+        <v>47.68043867554464</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>28.1661164354966</v>
+        <v>56.85627004757745</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>28.16611644037268</v>
+        <v>61.31278367816607</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>28.16611638931469</v>
+        <v>21.53132622686937</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>28.16611643200584</v>
+        <v>47.56750196224534</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>28.16611644369864</v>
+        <v>54.34025010519416</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>28.16611625752474</v>
+        <v>-3.022415604610668</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>28.1661162889093</v>
+        <v>16.04574491981523</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>28.16611629727893</v>
+        <v>19.33096442848024</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>28.16611625442023</v>
+        <v>-5.705458343315389</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>28.16611628996042</v>
+        <v>10.32672324797964</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>28.16611629943827</v>
+        <v>13.29425551096793</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.16611626465187</v>
+        <v>3.372863954804767</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>28.16611629632838</v>
+        <v>19.62952108710522</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>28.16611630477586</v>
+        <v>22.7485673489883</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>28.16611631111651</v>
+        <v>20.4856749747766</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>28.16611632652025</v>
+        <v>26.47854877409293</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>28.16611633100138</v>
+        <v>28.63235109174533</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>28.16611628761798</v>
+        <v>1.716859560460822</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>28.16611632572967</v>
+        <v>17.87116764341947</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>28.16611633586015</v>
+        <v>22.87518400906503</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>28.16611630597886</v>
+        <v>-4.701791491177101</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>28.16611634102892</v>
+        <v>16.5708845789052</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>28.16611635075443</v>
+        <v>22.12581454467551</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>28.1661163021655</v>
+        <v>-11.51456855044133</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>28.16611634185653</v>
+        <v>6.025438206436835</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>28.1661163528698</v>
+        <v>11.32654749624819</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>28.16611631664101</v>
+        <v>-1.141462838685968</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>28.16611635201711</v>
+        <v>17.23353243593041</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>28.1661163618331</v>
+        <v>22.48771766810011</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>28.16611636670503</v>
+        <v>22.04271036945702</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>28.1661163845512</v>
+        <v>30.20777005982522</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>28.16611638981927</v>
+        <v>34.09088434431379</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>28.1661163393321</v>
+        <v>-0.3780399503160616</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>28.16611638241846</v>
+        <v>21.13201731896513</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>28.16611639402059</v>
+        <v>27.17705661751954</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>28.16611634996079</v>
+        <v>1.535857252751438</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>28.16611638442746</v>
+        <v>25.17277531117148</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>28.16611639434415</v>
+        <v>31.33177299451025</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>28.1661163463546</v>
+        <v>-4.972917711738457</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>28.16611638538501</v>
+        <v>15.29739612131581</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>28.16611639661477</v>
+        <v>20.93610483119443</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>28.16611636232264</v>
+        <v>8.823198584038037</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>28.16611639710993</v>
+        <v>29.46592346750788</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>28.16611640711887</v>
+        <v>35.26336733919587</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>28.1661164098102</v>
+        <v>36.06423855399718</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>28.16611642730142</v>
+        <v>44.56231596089337</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>28.16611643219561</v>
+        <v>49.09102178496143</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>28.16611638183614</v>
+        <v>11.62792289577396</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>28.16611642405509</v>
+        <v>35.88440354019173</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>28.16611643582689</v>
+        <v>42.76841635436858</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>28.16611625260666</v>
+        <v>-10.36471453599274</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>28.16611628261726</v>
+        <v>7.491990321954145</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>28.16611629061768</v>
+        <v>10.34473505270249</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>28.16611624889147</v>
+        <v>-13.60467369989253</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>28.16611628287578</v>
+        <v>1.283950188695119</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>28.16611629193554</v>
+        <v>3.838949032194556</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>28.16611625839288</v>
+        <v>-5.563432029545922</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>28.16611628868265</v>
+        <v>9.611292055943977</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>28.16611629675749</v>
+        <v>12.28515987101586</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>28.16611630319403</v>
+        <v>10.22996760830292</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>28.16611631793503</v>
+        <v>15.77855425059837</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>28.16611632224359</v>
+        <v>17.87175380054481</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>28.16611628092777</v>
+        <v>-7.205815160552671</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>28.16611631736943</v>
+        <v>7.772919191024641</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>28.16611632704965</v>
+        <v>12.26763421363252</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>28.16611629997309</v>
+        <v>-9.495545479657107</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>28.16611633352146</v>
+        <v>10.47773720384693</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.16611634284109</v>
+        <v>15.52802295228958</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>28.16611629562913</v>
+        <v>-16.5051467280378</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>28.16611633361964</v>
+        <v>-0.1701664900116029</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>28.16611634417329</v>
+        <v>4.627278913060962</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>28.16611630924019</v>
+        <v>-7.088727461718708</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>28.16611634310064</v>
+        <v>10.11364590287434</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>28.16611635250697</v>
+        <v>14.86091292203665</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>28.16611635749404</v>
+        <v>14.54708359270434</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>28.16611637459802</v>
+        <v>22.19983380532023</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>28.16611637966816</v>
+        <v>25.99554841753064</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>28.16611633146201</v>
+        <v>-6.457889946520094</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.16611637270409</v>
+        <v>13.66339872145987</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>28.1661163838176</v>
+        <v>19.17148684649591</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>28.16611634315531</v>
+        <v>-2.824092270648695</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>28.16611637616503</v>
+        <v>19.42953621111639</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>28.16611638567067</v>
+        <v>25.11038221584827</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>28.16611633905118</v>
+        <v>-9.553465316441308</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.16611637643172</v>
+        <v>9.41031727506283</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>28.16611638719601</v>
+        <v>14.57996758320051</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>28.16611635415198</v>
+        <v>3.213983193239038</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>28.16611638746877</v>
+        <v>22.60507346967981</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>28.16611639706283</v>
+        <v>27.92174208326723</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>28.16611639994054</v>
+        <v>28.7752660494717</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>28.16611641671825</v>
+        <v>36.76168879088699</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>28.1661164214263</v>
+        <v>41.1661374114651</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>28.16611637328257</v>
+        <v>5.808880867087531</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>28.16611641372277</v>
+        <v>28.56798805315607</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>28.1661164250042</v>
+        <v>34.93073999927376</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>28.16611626422912</v>
+        <v>2.726472470804637</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>28.16611629713948</v>
+        <v>22.79427099694613</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>28.16611630613089</v>
+        <v>26.52664040797983</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.16611626194721</v>
+        <v>0.7799955158487499</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>28.16611629921523</v>
+        <v>17.66992707600964</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>28.1661163093972</v>
+        <v>21.14064482373529</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>28.16611627307392</v>
+        <v>10.12612456582746</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>28.16611630629043</v>
+        <v>27.21759097721927</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>28.16611631536548</v>
+        <v>30.78406013515333</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>28.16611632199769</v>
+        <v>28.3201662286218</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>28.16611633828073</v>
+        <v>34.76917546908253</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>28.16611634318101</v>
+        <v>37.39880478129757</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>28.16611629728145</v>
+        <v>9.62696999608197</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>28.1661163371864</v>
+        <v>26.35729495605406</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>28.16611634805096</v>
+        <v>31.76171719727061</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>28.16611631646343</v>
+        <v>0.7127641191621947</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>28.16611635322762</v>
+        <v>23.03626892652159</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.16611636357607</v>
+        <v>29.28978140066146</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>28.16611631342739</v>
+        <v>-5.928852887568983</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>28.16611635505954</v>
+        <v>12.49015254686605</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.16611636677823</v>
+        <v>18.55075067666339</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>28.16611632893631</v>
+        <v>4.727213357491145</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>28.1661163660425</v>
+        <v>23.98276841522044</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>28.16611637648721</v>
+        <v>29.91639049979611</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>28.16611638144951</v>
+        <v>29.26002115559939</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>28.16611640039349</v>
+        <v>38.00021538611492</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>28.16611640609809</v>
+        <v>42.51467551282447</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>28.16611635262235</v>
+        <v>6.216020533602322</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>28.16611639780438</v>
+        <v>28.62090996931455</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>28.16611641008972</v>
+        <v>35.26347084267719</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.16611636024704</v>
+        <v>4.736013028585262</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>28.16611639631455</v>
+        <v>29.2726804000696</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>28.16611640691432</v>
+        <v>36.13182931078171</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>28.16611635730639</v>
+        <v>-1.133161661116716</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>28.1661163981496</v>
+        <v>19.85627766147228</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>28.16611641015289</v>
+        <v>26.24728938765771</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>28.16611637421873</v>
+        <v>12.81315405208336</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>28.16611641062175</v>
+        <v>34.18179327347924</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.16611642132013</v>
+        <v>40.65757947270562</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>28.16611642394954</v>
+        <v>41.76537360583855</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>28.16611644250445</v>
+        <v>50.699133096083</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>28.16611644780243</v>
+        <v>55.77665884409267</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>28.16611639458852</v>
+        <v>16.60342764300839</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>28.16611643875473</v>
+        <v>41.65871988911319</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>28.16611645128005</v>
+        <v>49.2051767918544</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>28.16611626478497</v>
+        <v>6.65800610919808</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.16611629625429</v>
+        <v>26.9974101101596</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>28.16611630457752</v>
+        <v>30.51523717063989</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>28.1661162621222</v>
+        <v>4.717690635273062</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>28.16611629775838</v>
+        <v>21.99004055929613</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>28.16611630718368</v>
+        <v>25.17836049167452</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>28.16611627254604</v>
+        <v>14.45043182403446</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>28.16611630430811</v>
+        <v>31.98572088705381</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>28.16611631270876</v>
+        <v>35.32927423980853</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>28.16611631858463</v>
+        <v>32.53546859815711</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>28.16611633401104</v>
+        <v>38.9494701841942</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>28.16611633846645</v>
+        <v>41.23146681200288</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>28.16611629480295</v>
+        <v>12.29098662007669</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>28.16611633303555</v>
+        <v>29.85600206187301</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>28.16611634311604</v>
+        <v>35.19652328813053</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>28.16611631256959</v>
+        <v>5.724619517082967</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>28.16611634766485</v>
+        <v>28.22681576646227</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>28.16611635732826</v>
+        <v>34.05423054228352</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>28.16611630926326</v>
+        <v>-0.1258061808441369</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>28.1661163490055</v>
+        <v>18.62386933308489</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>28.16611635994844</v>
+        <v>24.18552803375291</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>28.16611632389014</v>
+        <v>10.92362119982885</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>28.16611635931188</v>
+        <v>30.53659443353924</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>28.16611636906518</v>
+        <v>36.04875385087384</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>28.16611637354429</v>
+        <v>35.09269787263774</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>28.16611639140055</v>
+        <v>43.65504254249902</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>28.16611639663073</v>
+        <v>47.68971219940043</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>28.16611634592395</v>
+        <v>11.21238295681832</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>28.16611638908019</v>
+        <v>34.09641186535747</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>28.1661164006131</v>
+        <v>40.56313115051768</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>28.16611635495537</v>
+        <v>8.531243383687455</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>28.16611638944889</v>
+        <v>33.31348990551781</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>28.16611639932784</v>
+        <v>39.79006827839582</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>28.16611635184065</v>
+        <v>2.96359747806375</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>28.16611639090146</v>
+        <v>24.36647247870878</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>28.16611640208848</v>
+        <v>30.31305948154201</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>28.16611636786212</v>
+        <v>17.2650459899027</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>28.16611640267651</v>
+        <v>39.068382141755</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>28.16611641264736</v>
+        <v>45.16731933502913</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>28.16611641495799</v>
+        <v>45.67929802544527</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>28.16611643246649</v>
+        <v>54.57293801300175</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>28.16611643733602</v>
+        <v>59.29891021238639</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>28.16611638678805</v>
+        <v>19.96183854121292</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>28.16611642906151</v>
+        <v>45.51408537734436</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>28.16611644079057</v>
+        <v>52.8613935955668</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>28.16611627446294</v>
+        <v>7.273809569606074</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>28.16611630791627</v>
+        <v>29.15576177477013</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>28.16611631694636</v>
+        <v>33.19824584411563</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>28.16611627287925</v>
+        <v>6.471812279081451</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>28.16611631076215</v>
+        <v>25.18348757221823</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>28.16611632098791</v>
+        <v>28.97435806180958</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>28.16611628440835</v>
+        <v>16.52876322104735</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>28.16611631817288</v>
+        <v>35.3374412503258</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>28.16611632728696</v>
+        <v>39.2060826167604</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>28.16611633319188</v>
+        <v>35.90573015131021</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>28.16611634964202</v>
+        <v>43.12526894670034</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>28.16611635456629</v>
+        <v>45.79343698349427</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>28.16611630776486</v>
+        <v>15.71868816208948</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>28.16611634828733</v>
+        <v>34.18054332689239</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>28.16611635921097</v>
+        <v>40.01901146855215</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>28.166116327204</v>
+        <v>7.033872411883523</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>28.16611636454269</v>
+        <v>31.26129315816214</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>28.16611637490497</v>
+        <v>37.72917962541406</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>28.16611632488558</v>
+        <v>1.746985215379631</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>28.1661163671683</v>
+        <v>22.07430322388904</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>28.16611637890264</v>
+        <v>28.3649557917689</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>28.16611634082796</v>
+        <v>13.22185262071363</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>28.16611637851399</v>
+        <v>34.2796980934106</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>28.16611638897266</v>
+        <v>40.41066458246827</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>28.16611639328138</v>
+        <v>39.27180474476179</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>28.16611641241425</v>
+        <v>48.87451930013445</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>28.16611641813216</v>
+        <v>53.4883989246562</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>28.16611636371347</v>
+        <v>14.59952794685086</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>28.16611640956213</v>
+        <v>38.94216424604274</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>28.1661164218744</v>
+        <v>45.90842796033539</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>28.16611636986012</v>
+        <v>8.800712380532417</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>28.1661164064733</v>
+        <v>35.18220690721855</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>28.16611641710486</v>
+        <v>42.29094255011738</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>28.16611636759514</v>
+        <v>4.240863636409038</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>28.16611640905627</v>
+        <v>27.07266755013433</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>28.16611642109556</v>
+        <v>33.73537365424347</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>28.16611638488618</v>
+        <v>18.91432527825355</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>28.16611642183995</v>
+        <v>42.03018188977924</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>28.16611643257041</v>
+        <v>48.73649267491611</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>28.16611643456436</v>
+        <v>49.45772458882489</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>28.16611645331373</v>
+        <v>59.19938697335657</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>28.16611645863107</v>
+        <v>64.34498196424373</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>28.16611640451561</v>
+        <v>22.68143829195754</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>28.16611644932186</v>
+        <v>49.64872282994286</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>28.16611646189811</v>
+        <v>57.56040750486078</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>28.16611627240241</v>
+        <v>6.064369253049463</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>28.16611630420567</v>
+        <v>25.95035718160919</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>28.16611631292998</v>
+        <v>29.77875027055947</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>28.16611627065965</v>
+        <v>5.069646616067264</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>28.16611630667399</v>
+        <v>21.85493641124282</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>28.16611631655348</v>
+        <v>25.45727144535445</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>28.16611628141715</v>
+        <v>13.91734761294081</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>28.16611631351626</v>
+        <v>30.87089057590752</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>28.16611632232172</v>
+        <v>34.52295801783247</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>28.16611632840153</v>
+        <v>31.29665010420281</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>28.16611634412119</v>
+        <v>37.74850242425388</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>28.1661163488958</v>
+        <v>40.49158619402456</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>28.16611630440487</v>
+        <v>12.95400024841135</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>28.16611634292722</v>
+        <v>29.42974341839502</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>28.16611635347821</v>
+        <v>34.93401292500385</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>28.16611632384303</v>
+        <v>7.328842600993076</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>28.16611635936785</v>
+        <v>29.42550823491713</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>28.16611636938664</v>
+        <v>35.7385824015272</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>28.16611632143775</v>
+        <v>2.062616069569046</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>28.16611636166642</v>
+        <v>20.34835634838801</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>28.1661163730118</v>
+        <v>26.50652882602025</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>28.1661163364154</v>
+        <v>12.23632472158716</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.16611637227069</v>
+        <v>31.30565380652452</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>28.16611638238268</v>
+        <v>37.28906093505843</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.16611638682459</v>
+        <v>35.83361367328181</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>28.16611640513611</v>
+        <v>44.53756283345687</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>28.16611641068253</v>
+        <v>49.18742488914504</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>28.16611635882636</v>
+        <v>13.03321085710031</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>28.16611640246112</v>
+        <v>35.10823924861737</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>28.1661164143536</v>
+        <v>41.82264916073129</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>28.16611636534062</v>
+        <v>9.318151600060627</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>28.16611640018764</v>
+        <v>33.49050316723509</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>28.16611641045002</v>
+        <v>40.39160729046746</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>28.16611636298236</v>
+        <v>4.858426379029883</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>28.16611640244349</v>
+        <v>25.55823720755646</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>28.1661164140647</v>
+        <v>32.03458394351075</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>28.16611637929008</v>
+        <v>18.12957146087829</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>28.16611641446126</v>
+        <v>39.18053749098411</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>28.1661164248191</v>
+        <v>45.68777503122325</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>28.16611642702414</v>
+        <v>46.15446172856454</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>28.16611644496891</v>
+        <v>54.97426041048176</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>28.16611645011645</v>
+        <v>60.11867461049634</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>28.16611639853321</v>
+        <v>21.28740710473519</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>28.1661164411892</v>
+        <v>45.88880330807407</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>28.16611645331723</v>
+        <v>53.50988653616236</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>28.1661162661483</v>
+        <v>4.348366723678598</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.16611629948202</v>
+        <v>26.26993223341379</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>28.1661163082729</v>
+        <v>29.84583774620205</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>28.16611626385447</v>
+        <v>2.483613045355465</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>28.16611630160193</v>
+        <v>21.23313144729097</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>28.16611631155681</v>
+        <v>24.43841109873249</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>28.16611627508468</v>
+        <v>12.6833772353432</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>28.16611630872849</v>
+        <v>31.62773281911298</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>28.16611631760115</v>
+        <v>35.04578106411006</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>28.16611632360587</v>
+        <v>32.27858128460055</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>28.16611633992595</v>
+        <v>39.20309334404001</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>28.16611634466939</v>
+        <v>41.5438485984955</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>28.16611629828806</v>
+        <v>10.82792955108236</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>28.16611633875731</v>
+        <v>29.81685972850831</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>28.16611634940465</v>
+        <v>35.15102697851974</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>28.16611631713671</v>
+        <v>3.946268877220326</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>28.16611635430849</v>
+        <v>28.13140333172711</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>28.16611636447253</v>
+        <v>34.06981800063073</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>28.16611631420002</v>
+        <v>-2.234518396880251</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>28.16611635629372</v>
+        <v>18.0537272787589</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>28.16611636780359</v>
+        <v>23.70095565441171</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>28.16611632984732</v>
+        <v>9.414820962915043</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>28.16611636736489</v>
+        <v>30.53221350050825</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>28.16611637762348</v>
+        <v>36.16145885910375</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>28.16611638215353</v>
+        <v>35.3546543015397</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>28.16611640106677</v>
+        <v>44.54386168037041</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>28.16611640661954</v>
+        <v>48.70297077805427</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>28.16611635277124</v>
+        <v>9.926681212327921</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>28.16611639846393</v>
+        <v>34.55095585984537</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>28.16611641058541</v>
+        <v>40.98859791054252</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>28.16611636060012</v>
+        <v>6.025926724525831</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>28.16611639708979</v>
+        <v>32.46168409414481</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>28.16611640751323</v>
+        <v>39.08944544105732</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>28.16611635778857</v>
+        <v>0.2382411935173003</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>28.16611639910984</v>
+        <v>23.16430929684292</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>28.16611641091345</v>
+        <v>29.22441000979376</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>28.16611637483313</v>
+        <v>15.2117836771255</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>28.16611641166224</v>
+        <v>38.48464073794398</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>28.16611642218264</v>
+        <v>44.73865612740317</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>28.16611642441864</v>
+        <v>45.61092285458251</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>28.16611644296401</v>
+        <v>55.11902818359883</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>28.16611644813554</v>
+        <v>59.91440594960862</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>28.16611639450901</v>
+        <v>18.29111704072599</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>28.16611643921307</v>
+        <v>45.61094210436366</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>28.16611645157979</v>
+        <v>52.99004513663678</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>28.16611626495376</v>
+        <v>-1.978492361322765</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>28.16611629585067</v>
+        <v>16.96475970562168</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>28.16611630422517</v>
+        <v>20.45026749882047</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>28.16611626265281</v>
+        <v>-3.593029902186597</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>28.16611629764077</v>
+        <v>12.39855294195758</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>28.16611630712414</v>
+        <v>15.57804091055736</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.16611627292754</v>
+        <v>4.875607344525591</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.16611630411186</v>
+        <v>21.00323252028277</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>28.16611631256426</v>
+        <v>24.3387513942907</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>28.16611631899327</v>
+        <v>22.34579799649277</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>28.16611633426939</v>
+        <v>28.30333497837434</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>28.16611633881438</v>
+        <v>30.74447671372862</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>28.16611629580037</v>
+        <v>4.289110829338568</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>28.16611633329018</v>
+        <v>20.16311207478976</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>28.1661163434188</v>
+        <v>25.18586415620799</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>28.16611631490055</v>
+        <v>0.1394587093985322</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>28.16611634948441</v>
+        <v>21.45037472531681</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>28.16611635913581</v>
+        <v>27.40062119986737</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>28.16611631196499</v>
+        <v>-5.644519658956533</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>28.1661163511281</v>
+        <v>12.02903642274578</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>28.16611636205744</v>
+        <v>17.73180148612684</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>28.16611632641394</v>
+        <v>4.264515412164183</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>28.16611636131951</v>
+        <v>22.66183392969695</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>28.16611637106069</v>
+        <v>28.32140316401012</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>28.16611637588114</v>
+        <v>27.87074485399575</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>28.16611639367628</v>
+        <v>36.0994008628943</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>28.16611639897074</v>
+        <v>40.29209504866164</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>28.16611634877465</v>
+        <v>5.500862249603966</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>28.16611639129903</v>
+        <v>27.0040199053649</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>28.16611640276595</v>
+        <v>33.30394876724316</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>28.16611635635434</v>
+        <v>3.352726582456096</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>28.16611639030213</v>
+        <v>26.78065376860694</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>28.16611640019175</v>
+        <v>33.27664900842403</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>28.16611635354866</v>
+        <v>-1.909515420281888</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>28.16611639199148</v>
+        <v>18.2323207506135</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>28.16611640319059</v>
+        <v>24.20790254120589</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>28.16611636931286</v>
+        <v>11.10905390485752</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>28.16611640357645</v>
+        <v>31.53091194358071</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>28.16611641355806</v>
+        <v>37.67918673912331</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>28.16611641614855</v>
+        <v>38.83021227251636</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>28.16611643357976</v>
+        <v>47.27312106942185</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>28.1661164385032</v>
+        <v>52.04882630142843</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>28.16611638852631</v>
+        <v>14.56371121023919</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>28.16611643011365</v>
+        <v>38.58636546779356</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>28.16611644180697</v>
+        <v>45.74735661689624</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>28.16611627059724</v>
+        <v>2.762227076763452</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>28.16611630220583</v>
+        <v>22.32184287054575</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>28.16611631091326</v>
+        <v>26.19574925615682</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>28.16611626877977</v>
+        <v>1.584660939730817</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>28.16611630457367</v>
+        <v>18.04607235260686</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>28.16611631443404</v>
+        <v>21.69854257962954</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>28.16611627943267</v>
+        <v>10.24659347604346</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>28.1661163113353</v>
+        <v>26.8922976481838</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>28.16611632012372</v>
+        <v>30.59124180527972</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>28.16611632637333</v>
+        <v>27.67198082348041</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>28.16611634202503</v>
+        <v>34.01788154610207</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>28.16611634679001</v>
+        <v>36.80659642227659</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>28.16611630257173</v>
+        <v>9.623159061887604</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>28.16611634087991</v>
+        <v>25.8368904879224</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>28.16611635140193</v>
+        <v>31.3665073473487</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>28.16611632164589</v>
+        <v>3.53009296406065</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>28.16611635696324</v>
+        <v>25.29979692415202</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>28.16611636696926</v>
+        <v>31.71765021500112</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>28.16611631915515</v>
+        <v>-1.942633137938817</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>28.16611635914887</v>
+        <v>16.02440165881603</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>28.16611637047979</v>
+        <v>22.29154673959471</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>28.16611633400743</v>
+        <v>8.01554533834261</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>28.16611636965331</v>
+        <v>26.77656638890429</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>28.16611637975241</v>
+        <v>32.86642858422493</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>28.16611638433994</v>
+        <v>31.60806707907601</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>28.16611640257397</v>
+        <v>40.21095754681264</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>28.16611640811313</v>
+        <v>44.90865926139061</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>28.16611635655561</v>
+        <v>9.095224216792726</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>28.16611639995552</v>
+        <v>30.89399559998692</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>28.16611641182462</v>
+        <v>37.69826164279135</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>28.16611636315115</v>
+        <v>5.773564237147234</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>28.16611639779475</v>
+        <v>29.61999250977367</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>28.16611640804119</v>
+        <v>36.61034683408768</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>28.1661163607169</v>
+        <v>1.089749813987304</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>28.16611639994766</v>
+        <v>21.473819218065</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>28.16611641155083</v>
+        <v>28.04340182519756</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>28.16611637689651</v>
+        <v>14.15888488726611</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>28.16611641186238</v>
+        <v>34.90187914989723</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>28.16611642220413</v>
+        <v>41.50144285416654</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>28.16611642455689</v>
+        <v>42.16879209569688</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>28.16611644242134</v>
+        <v>50.87473579322174</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>28.16611644756037</v>
+        <v>56.07320426985723</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>28.16611639627614</v>
+        <v>17.58741057611735</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>28.16611643869916</v>
+        <v>41.90017076602463</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>28.16611645079949</v>
+        <v>49.6066646442226</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>28.16611627626411</v>
+        <v>10.33045382704008</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>28.16611630806002</v>
+        <v>30.78407912278386</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>28.16611631662433</v>
+        <v>34.34873728961826</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>28.16611627479486</v>
+        <v>9.288951410403063</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>28.16611631080087</v>
+        <v>26.82231392043027</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>28.16611632049918</v>
+        <v>30.07957223089057</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>28.16611628565835</v>
+        <v>19.18965621077682</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>28.16611631775004</v>
+        <v>36.71060714836446</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>28.16611632639402</v>
+        <v>40.1218426228349</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>28.16611633222332</v>
+        <v>36.9638352814279</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>28.16611634784434</v>
+        <v>43.32628140237495</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>28.16611635246779</v>
+        <v>45.66773430282551</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>28.16611630807956</v>
+        <v>17.79546830338368</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>28.16611634658571</v>
+        <v>34.97664513673337</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>28.16611635698208</v>
+        <v>40.40080720727472</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>28.16611632595508</v>
+        <v>8.983697180906063</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>28.16611636145753</v>
+        <v>31.6636915354598</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>28.16611637130092</v>
+        <v>37.44087422388801</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>28.16611632375178</v>
+        <v>3.42854567087873</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>28.16611636395512</v>
+        <v>22.47514395812071</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>28.16611637510187</v>
+        <v>28.04154251415262</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>28.16611633885517</v>
+        <v>14.7236700426762</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>28.16611637468788</v>
+        <v>34.38207456248958</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>28.16611638462284</v>
+        <v>39.85386764647717</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>28.16611638897434</v>
+        <v>38.71587163953938</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>28.16611640711344</v>
+        <v>47.21589723591525</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>28.16611641249037</v>
+        <v>51.28122306270477</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>28.16611636090527</v>
+        <v>15.43960424505448</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>28.16611640448688</v>
+        <v>38.13713176364084</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>28.16611641622795</v>
+        <v>44.49017455676653</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>28.16611636735394</v>
+        <v>10.91597104916746</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>28.16611640218454</v>
+        <v>35.68761727101849</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>28.16611641226397</v>
+        <v>42.0842225779258</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>28.16611636517856</v>
+        <v>5.965046974114657</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>28.1661164046211</v>
+        <v>27.4399680310623</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>28.16611641603514</v>
+        <v>33.37166296749815</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>28.16611638162307</v>
+        <v>20.36235695163008</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>28.16611641677768</v>
+        <v>42.02504334746055</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>28.16611642695087</v>
+        <v>48.05377051169717</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>28.1661164290924</v>
+        <v>48.57054159011875</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>28.16611644686053</v>
+        <v>57.2785928262749</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>28.16611645186471</v>
+        <v>61.9075969396814</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>28.16611640054746</v>
+        <v>23.32028882596243</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>28.16611644315246</v>
+        <v>48.5442230755589</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>28.16611645511624</v>
+        <v>55.78718644925314</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>28.16611626828185</v>
+        <v>4.667041824773229</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>28.16611630151751</v>
+        <v>26.60552399711978</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>28.16611631028309</v>
+        <v>30.17211799157092</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>28.16611626624232</v>
+        <v>2.942508511192091</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>28.16611630387873</v>
+        <v>21.73341699331681</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>28.16611631380496</v>
+        <v>24.93351408477599</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>28.16611627746334</v>
+        <v>13.09327451416101</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>28.16611631100818</v>
+        <v>32.05649083379157</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>28.1661163198553</v>
+        <v>35.46808273103882</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>28.16611632583486</v>
+        <v>32.69070661037026</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>28.16611634210498</v>
+        <v>39.55831217436031</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>28.16611634684546</v>
+        <v>41.94589052106355</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>28.16611630055802</v>
+        <v>11.30223910489191</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>28.16611634089858</v>
+        <v>30.26955254619992</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>28.16611635152051</v>
+        <v>35.61697064495644</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>28.16611631929506</v>
+        <v>4.611794220990213</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>28.16611635636403</v>
+        <v>28.8203901018646</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>28.16611636648662</v>
+        <v>34.76054350052493</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>28.16611631658627</v>
+        <v>-1.415579592439801</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>28.16611635856355</v>
+        <v>18.92411622404198</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>28.16611637002648</v>
+        <v>24.58310180486757</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>28.16611633221202</v>
+        <v>10.17650062623614</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>28.16611636962581</v>
+        <v>31.3181821540737</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>28.16611637984258</v>
+        <v>36.95114642516202</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>28.16611638433521</v>
+        <v>36.06648103477361</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>28.16611640320031</v>
+        <v>45.17292304839808</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>28.16611640874405</v>
+        <v>49.39418977944628</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>28.16611635500113</v>
+        <v>10.66128300558683</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>28.16611640056554</v>
+        <v>35.2828064466182</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>28.16611641263548</v>
+        <v>41.73721854229949</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>28.16611636226192</v>
+        <v>6.339659427689757</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>28.1661163986401</v>
+        <v>32.74410369639016</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>28.16611640902633</v>
+        <v>39.38067808463263</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>28.16611635965787</v>
+        <v>0.6875083273791596</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>28.16611640085289</v>
+        <v>23.60900638471371</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>28.16611641261436</v>
+        <v>29.68516011623422</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>28.16611637665384</v>
+        <v>15.55831163063089</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>28.16611641337043</v>
+        <v>38.80135092607551</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>28.16611642385328</v>
+        <v>45.06705988477729</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>28.16611642606003</v>
+        <v>45.88867856446964</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>28.16611644455691</v>
+        <v>55.27319460146406</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>28.16611644971951</v>
+        <v>60.11693064590897</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>28.16611639621473</v>
+        <v>18.59572725063505</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>28.16611644077963</v>
+        <v>45.85104959562342</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>28.16611645310144</v>
+        <v>53.2765041559766</v>
       </c>
     </row>
   </sheetData>
